--- a/LAAG/TempFiles/B14_03---17 Camero (app).xlsx
+++ b/LAAG/TempFiles/B14_03---17 Camero (app).xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="16095" windowHeight="8910" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="615" windowWidth="16095" windowHeight="8910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="MS 105" sheetId="2" r:id="rId2"/>
     <sheet name="Neutra" sheetId="3" r:id="rId3"/>
-    <sheet name="äcida" sheetId="4" r:id="rId4"/>
+    <sheet name="ácida" sheetId="4" r:id="rId4"/>
     <sheet name="C.O." sheetId="5" r:id="rId5"/>
     <sheet name="digestibilidad" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>CLIENTE:</t>
   </si>
@@ -211,9 +211,6 @@
     </r>
   </si>
   <si>
-    <t>B14_03</t>
-  </si>
-  <si>
     <t>B14_04</t>
   </si>
   <si>
@@ -274,39 +271,9 @@
     <t>% error</t>
   </si>
   <si>
-    <t>MS  105°C</t>
-  </si>
-  <si>
-    <t>recipiente,g</t>
-  </si>
-  <si>
-    <t>muestra "as is", g</t>
-  </si>
-  <si>
-    <t>muestra  105ºC, g</t>
-  </si>
-  <si>
-    <t>105°C</t>
-  </si>
-  <si>
     <t>PROMEDIO</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag </t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Neutral Detergent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% </t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -341,9 +308,6 @@
   </si>
   <si>
     <t>Blank Bag</t>
-  </si>
-  <si>
-    <t>Acid Detergent</t>
   </si>
   <si>
     <t>B12_12</t>
@@ -516,6 +480,12 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>B14_3</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +497,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,12 +606,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -724,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -814,40 +778,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1004,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,50 +1038,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,7 +1088,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,28 +1103,25 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1218,10 +1130,10 @@
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="12" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,10 +1157,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,13 +1172,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,48 +1187,48 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1264,7 @@
     <xf numFmtId="166" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,7 +1674,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,35 +1689,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="H3" s="10"/>
@@ -1821,16 +1733,16 @@
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="137">
+      <c r="K3" s="129">
         <v>41810</v>
       </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1839,10 +1751,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="135"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1876,19 +1788,19 @@
     <row r="10" spans="1:13" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -1897,492 +1809,492 @@
       <c r="B11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139" t="s">
+      <c r="D11" s="131"/>
+      <c r="E11" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139" t="s">
+      <c r="H11" s="131"/>
+      <c r="I11" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139" t="s">
+      <c r="J11" s="131"/>
+      <c r="K11" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="95" t="s">
-        <v>107</v>
+      <c r="L11" s="131"/>
+      <c r="M11" s="87" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="131">
+        <v>97</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="123">
         <v>7.19</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="131">
+      <c r="D12" s="124"/>
+      <c r="E12" s="123">
         <v>43.98</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="131">
+      <c r="F12" s="124"/>
+      <c r="G12" s="123">
         <v>71.28</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="131">
+      <c r="H12" s="124"/>
+      <c r="I12" s="123">
         <v>89.9</v>
       </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="131">
+      <c r="J12" s="124"/>
+      <c r="K12" s="123">
         <v>55.7</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="101">
+      <c r="L12" s="124"/>
+      <c r="M12" s="93">
         <v>25.887469888271482</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="131">
+        <v>19</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="123">
         <v>7.99</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="131">
+      <c r="D13" s="124"/>
+      <c r="E13" s="123">
         <v>42.96</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="131">
+      <c r="F13" s="124"/>
+      <c r="G13" s="123">
         <v>71.099999999999994</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="131">
+      <c r="H13" s="124"/>
+      <c r="I13" s="123">
         <v>89.6</v>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="131">
+      <c r="J13" s="124"/>
+      <c r="K13" s="123">
         <v>53.6</v>
       </c>
-      <c r="L13" s="132"/>
-      <c r="M13" s="101">
+      <c r="L13" s="124"/>
+      <c r="M13" s="93">
         <v>27.693953212896211</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="131">
+        <v>20</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="123">
         <v>8.25</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="131">
+      <c r="D14" s="124"/>
+      <c r="E14" s="123">
         <v>42.29</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="131">
+      <c r="F14" s="124"/>
+      <c r="G14" s="123">
         <v>69.69</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="131">
+      <c r="H14" s="124"/>
+      <c r="I14" s="123">
         <v>89.7</v>
       </c>
-      <c r="J14" s="132"/>
-      <c r="K14" s="131">
+      <c r="J14" s="124"/>
+      <c r="K14" s="123">
         <v>54.5</v>
       </c>
-      <c r="L14" s="132"/>
-      <c r="M14" s="101">
+      <c r="L14" s="124"/>
+      <c r="M14" s="93">
         <v>28.830589888282198</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="131">
+        <v>21</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="123">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="131">
+      <c r="D15" s="124"/>
+      <c r="E15" s="123">
         <v>40.880000000000003</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="131">
+      <c r="F15" s="124"/>
+      <c r="G15" s="123">
         <v>67.75</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="131">
+      <c r="H15" s="124"/>
+      <c r="I15" s="123">
         <v>89.4</v>
       </c>
-      <c r="J15" s="132"/>
-      <c r="K15" s="131">
+      <c r="J15" s="124"/>
+      <c r="K15" s="123">
         <v>52.9</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="101">
+      <c r="L15" s="124"/>
+      <c r="M15" s="93">
         <v>26.967815785944929</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="131">
+        <v>22</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="123">
         <v>10.34</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="131">
+      <c r="D16" s="124"/>
+      <c r="E16" s="123">
         <v>40.53</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="131">
+      <c r="F16" s="124"/>
+      <c r="G16" s="123">
         <v>67.66</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="131">
+      <c r="H16" s="124"/>
+      <c r="I16" s="123">
         <v>89.7</v>
       </c>
-      <c r="J16" s="132"/>
-      <c r="K16" s="131">
+      <c r="J16" s="124"/>
+      <c r="K16" s="123">
         <v>50</v>
       </c>
-      <c r="L16" s="132"/>
-      <c r="M16" s="101">
+      <c r="L16" s="124"/>
+      <c r="M16" s="93">
         <v>27.522928759617187</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="131">
+        <v>23</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="123">
         <v>11.38</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="131">
+      <c r="D17" s="124"/>
+      <c r="E17" s="123">
         <v>38.799999999999997</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="131">
+      <c r="F17" s="124"/>
+      <c r="G17" s="123">
         <v>68</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="131">
+      <c r="H17" s="124"/>
+      <c r="I17" s="123">
         <v>90</v>
       </c>
-      <c r="J17" s="132"/>
-      <c r="K17" s="131">
+      <c r="J17" s="124"/>
+      <c r="K17" s="123">
         <v>49.5</v>
       </c>
-      <c r="L17" s="132"/>
-      <c r="M17" s="101">
+      <c r="L17" s="124"/>
+      <c r="M17" s="93">
         <v>26.859964079423932</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="131">
+        <v>24</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="123">
         <v>6.57</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="131">
+      <c r="D18" s="124"/>
+      <c r="E18" s="123">
         <v>39.299999999999997</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="131">
+      <c r="F18" s="124"/>
+      <c r="G18" s="123">
         <v>65.41</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="131">
+      <c r="H18" s="124"/>
+      <c r="I18" s="123">
         <v>89.9</v>
       </c>
-      <c r="J18" s="132"/>
-      <c r="K18" s="131">
+      <c r="J18" s="124"/>
+      <c r="K18" s="123">
         <v>49.9</v>
       </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="101">
+      <c r="L18" s="124"/>
+      <c r="M18" s="93">
         <v>28.785647197444675</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="131">
+        <v>25</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="123">
         <v>6.73</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="131">
+      <c r="D19" s="124"/>
+      <c r="E19" s="123">
         <v>37.659999999999997</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="131">
+      <c r="F19" s="124"/>
+      <c r="G19" s="123">
         <v>64.87</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="131">
+      <c r="H19" s="124"/>
+      <c r="I19" s="123">
         <v>89.7</v>
       </c>
-      <c r="J19" s="132"/>
-      <c r="K19" s="131">
+      <c r="J19" s="124"/>
+      <c r="K19" s="123">
         <v>57.9</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="101">
+      <c r="L19" s="124"/>
+      <c r="M19" s="93">
         <v>27.327059266496903</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="131">
+        <v>26</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="123">
         <v>7.15</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="131">
+      <c r="D20" s="124"/>
+      <c r="E20" s="123">
         <v>37.020000000000003</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="131">
+      <c r="F20" s="124"/>
+      <c r="G20" s="123">
         <v>66.88</v>
       </c>
-      <c r="H20" s="132"/>
-      <c r="I20" s="131">
+      <c r="H20" s="124"/>
+      <c r="I20" s="123">
         <v>89.8</v>
       </c>
-      <c r="J20" s="132"/>
-      <c r="K20" s="131">
+      <c r="J20" s="124"/>
+      <c r="K20" s="123">
         <v>59.6</v>
       </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="101">
+      <c r="L20" s="124"/>
+      <c r="M20" s="93">
         <v>23.77524094902514</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="131">
+        <v>27</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="123">
         <v>6.94</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="131">
+      <c r="D21" s="124"/>
+      <c r="E21" s="123">
         <v>41.07</v>
       </c>
-      <c r="F21" s="132"/>
-      <c r="G21" s="131">
+      <c r="F21" s="124"/>
+      <c r="G21" s="123">
         <v>64.94</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="131">
+      <c r="H21" s="124"/>
+      <c r="I21" s="123">
         <v>89.6</v>
       </c>
-      <c r="J21" s="132"/>
-      <c r="K21" s="131">
+      <c r="J21" s="124"/>
+      <c r="K21" s="123">
         <v>53.6</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="101">
+      <c r="L21" s="124"/>
+      <c r="M21" s="93">
         <v>22.486634346599637</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="131">
+        <v>28</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="123">
         <v>6.37</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="131">
+      <c r="D22" s="124"/>
+      <c r="E22" s="123">
         <v>41.38</v>
       </c>
-      <c r="F22" s="132"/>
-      <c r="G22" s="131">
+      <c r="F22" s="124"/>
+      <c r="G22" s="123">
         <v>65.37</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="131">
+      <c r="H22" s="124"/>
+      <c r="I22" s="123">
         <v>89.6</v>
       </c>
-      <c r="J22" s="132"/>
-      <c r="K22" s="131">
+      <c r="J22" s="124"/>
+      <c r="K22" s="123">
         <v>53.1</v>
       </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="101">
+      <c r="L22" s="124"/>
+      <c r="M22" s="93">
         <v>23.008485860475211</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="131">
+        <v>29</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="123">
         <v>7.09</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="131">
+      <c r="D23" s="124"/>
+      <c r="E23" s="123">
         <v>38.56</v>
       </c>
-      <c r="F23" s="132"/>
-      <c r="G23" s="131">
+      <c r="F23" s="124"/>
+      <c r="G23" s="123">
         <v>67.67</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="131">
+      <c r="H23" s="124"/>
+      <c r="I23" s="123">
         <v>89.3</v>
       </c>
-      <c r="J23" s="132"/>
-      <c r="K23" s="131">
+      <c r="J23" s="124"/>
+      <c r="K23" s="123">
         <v>55.9</v>
       </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="101">
+      <c r="L23" s="124"/>
+      <c r="M23" s="93">
         <v>22.82208823304714</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="131">
+        <v>30</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="123">
         <v>12.02</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="131">
+      <c r="D24" s="124"/>
+      <c r="E24" s="123">
         <v>40.590000000000003</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="131">
+      <c r="F24" s="124"/>
+      <c r="G24" s="123">
         <v>64.94</v>
       </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="131">
+      <c r="H24" s="124"/>
+      <c r="I24" s="123">
         <v>89.6</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="131">
+      <c r="J24" s="124"/>
+      <c r="K24" s="123">
         <v>53.4</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="101">
+      <c r="L24" s="124"/>
+      <c r="M24" s="93">
         <v>22.358771594191225</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="131">
+        <v>31</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="123">
         <v>8.61</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="131">
+      <c r="D25" s="124"/>
+      <c r="E25" s="123">
         <v>39.97</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="131">
+      <c r="F25" s="124"/>
+      <c r="G25" s="123">
         <v>64.61</v>
       </c>
-      <c r="H25" s="132"/>
-      <c r="I25" s="131">
+      <c r="H25" s="124"/>
+      <c r="I25" s="123">
         <v>89.2</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="131">
+      <c r="J25" s="124"/>
+      <c r="K25" s="123">
         <v>54.4</v>
       </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="101">
+      <c r="L25" s="124"/>
+      <c r="M25" s="93">
         <v>22.746571387875733</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="131">
+        <v>32</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="123">
         <v>8.31</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="131">
+      <c r="D26" s="124"/>
+      <c r="E26" s="123">
         <v>38.83</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="G26" s="131">
+      <c r="F26" s="124"/>
+      <c r="G26" s="123">
         <v>64.08</v>
       </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="131">
+      <c r="H26" s="124"/>
+      <c r="I26" s="123">
         <v>89.2</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="131">
+      <c r="J26" s="124"/>
+      <c r="K26" s="123">
         <v>60.2</v>
       </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="101">
+      <c r="L26" s="124"/>
+      <c r="M26" s="93">
         <v>22.555148074816071</v>
       </c>
     </row>
@@ -2407,9 +2319,9 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -2422,9 +2334,9 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
       <c r="I29" s="6"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -2433,16 +2345,16 @@
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
     </row>
     <row r="31" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -2450,17 +2362,17 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
+      <c r="D31" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
       <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,462 +2501,442 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
-        <v>45</v>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2.0002</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2.7279</v>
+      </c>
+      <c r="F2" s="36">
+        <f>(E2-C2)/(D2)*100</f>
+        <v>89.716028397160287</v>
+      </c>
+      <c r="G2" s="42">
+        <f>(ABS(F2-F3)/AVERAGE(F2:F3))*100</f>
+        <v>0.44645990579959921</v>
+      </c>
+      <c r="H2" s="120">
+        <f>AVERAGE(F2:F3)</f>
+        <v>89.916749514751103</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E3" s="39">
+        <v>2.7376</v>
+      </c>
+      <c r="F3" s="40">
+        <f>(E3-C3)/(D3)*100</f>
+        <v>90.117470632341906</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="121"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35">
-        <v>0.93340000000000001</v>
-      </c>
-      <c r="D3" s="35">
-        <v>2.0002</v>
-      </c>
-      <c r="E3" s="35">
-        <v>2.7279</v>
-      </c>
-      <c r="F3" s="36">
-        <f>(E3-C3)/(D3)*100</f>
-        <v>89.716028397160287</v>
-      </c>
-      <c r="G3" s="42">
-        <f>(ABS(F3-F4)/AVERAGE(F3:F4))*100</f>
-        <v>0.44645990579959921</v>
-      </c>
-      <c r="H3" s="128">
-        <f>AVERAGE(F3:F4)</f>
-        <v>89.916749514751103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38">
-        <v>2</v>
-      </c>
-      <c r="C4" s="39">
-        <v>0.93479999999999996</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="B4" s="34">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2.0007999999999999</v>
+      </c>
+      <c r="E4" s="35">
+        <v>2.7242999999999999</v>
+      </c>
+      <c r="F4" s="36">
+        <f t="shared" ref="F4:F15" si="0">(E4-C4)/(D4)*100</f>
+        <v>89.764094362255094</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" ref="G4" si="1">(ABS(F4-F5)/AVERAGE(F4:F5))*100</f>
+        <v>0.31405318186357439</v>
+      </c>
+      <c r="H4" s="120">
+        <f t="shared" ref="H4:H10" si="2">AVERAGE(F4:F5)</f>
+        <v>89.623361852459709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38">
+        <v>4</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D5" s="39">
         <v>2.0005000000000002</v>
       </c>
-      <c r="E4" s="39">
-        <v>2.7376</v>
-      </c>
-      <c r="F4" s="40">
-        <f>(E4-C4)/(D4)*100</f>
-        <v>90.117470632341906</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="129"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="34">
-        <v>3</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D5" s="35">
-        <v>2.0007999999999999</v>
-      </c>
-      <c r="E5" s="35">
-        <v>2.7242999999999999</v>
-      </c>
-      <c r="F5" s="36">
-        <f t="shared" ref="F5:F16" si="0">(E5-C5)/(D5)*100</f>
-        <v>89.764094362255094</v>
-      </c>
-      <c r="G5" s="29">
-        <f t="shared" ref="G5" si="1">(ABS(F5-F6)/AVERAGE(F5:F6))*100</f>
-        <v>0.31405318186357439</v>
-      </c>
-      <c r="H5" s="128">
-        <f t="shared" ref="H5:H11" si="2">AVERAGE(F5:F6)</f>
-        <v>89.623361852459709</v>
-      </c>
+      <c r="E5" s="39">
+        <v>2.7198000000000002</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="0"/>
+        <v>89.482629342664339</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="39">
-        <v>0.92969999999999997</v>
+        <v>0.9405</v>
       </c>
       <c r="D6" s="39">
-        <v>2.0005000000000002</v>
+        <v>2.0003000000000002</v>
       </c>
       <c r="E6" s="39">
-        <v>2.7198000000000002</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="0"/>
-        <v>89.482629342664339</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="129"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="38">
-        <v>5</v>
-      </c>
-      <c r="C7" s="39">
-        <v>0.9405</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2.0003000000000002</v>
-      </c>
-      <c r="E7" s="39">
         <v>2.7296</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>89.441583762435613</v>
       </c>
-      <c r="G7" s="42">
-        <f t="shared" ref="G7" si="3">(ABS(F7-F8)/AVERAGE(F7:F8))*100</f>
+      <c r="G6" s="42">
+        <f t="shared" ref="G6" si="3">(ABS(F6-F7)/AVERAGE(F6:F7))*100</f>
         <v>0.39492546345232121</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H6" s="120">
         <f t="shared" si="2"/>
         <v>89.618546993462189</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38">
+        <v>6</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="E7" s="39">
+        <v>2.7339000000000002</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="0"/>
+        <v>89.79551022448878</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="121"/>
+    </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="B8" s="38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="39">
-        <v>0.93789999999999996</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="D8" s="39">
-        <v>2.0001000000000002</v>
+        <v>2.0013000000000001</v>
       </c>
       <c r="E8" s="39">
-        <v>2.7339000000000002</v>
-      </c>
-      <c r="F8" s="40">
-        <f t="shared" si="0"/>
-        <v>89.79551022448878</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="129"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="38">
-        <v>7</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0.91990000000000005</v>
-      </c>
-      <c r="D9" s="39">
-        <v>2.0013000000000001</v>
-      </c>
-      <c r="E9" s="39">
         <v>2.7168999999999999</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F8" s="36">
         <f t="shared" si="0"/>
         <v>89.791635436965962</v>
       </c>
-      <c r="G9" s="29">
-        <f t="shared" ref="G9" si="4">(ABS(F9-F10)/AVERAGE(F9:F10))*100</f>
+      <c r="G8" s="29">
+        <f t="shared" ref="G8" si="4">(ABS(F8-F9)/AVERAGE(F8:F9))*100</f>
         <v>0.46889216812348683</v>
       </c>
-      <c r="H9" s="128">
+      <c r="H8" s="120">
         <f t="shared" si="2"/>
         <v>89.581614848913404</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38">
+        <v>8</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2.0003000000000002</v>
+      </c>
+      <c r="E9" s="39">
+        <v>2.7071999999999998</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="0"/>
+        <v>89.37159426086086</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="121"/>
+    </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="39">
-        <v>0.91949999999999998</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="D10" s="39">
-        <v>2.0003000000000002</v>
+        <v>2.0007999999999999</v>
       </c>
       <c r="E10" s="39">
-        <v>2.7071999999999998</v>
-      </c>
-      <c r="F10" s="40">
-        <f t="shared" si="0"/>
-        <v>89.37159426086086</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="129"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="38">
-        <v>9</v>
-      </c>
-      <c r="C11" s="39">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="D11" s="39">
-        <v>2.0007999999999999</v>
-      </c>
-      <c r="E11" s="39">
         <v>2.7052999999999998</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>89.204318272690912</v>
       </c>
-      <c r="G11" s="42">
-        <f t="shared" ref="G11" si="5">(ABS(F11-F12)/AVERAGE(F11:F12))*100</f>
+      <c r="G10" s="42">
+        <f t="shared" ref="G10" si="5">(ABS(F10-F11)/AVERAGE(F10:F11))*100</f>
         <v>0.27475371429746726</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H10" s="120">
         <f t="shared" si="2"/>
         <v>89.327032943132394</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38">
+        <v>10</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2.0009000000000001</v>
+      </c>
+      <c r="E11" s="39">
+        <v>2.7141000000000002</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>89.449747613573891</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="121"/>
+    </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="39">
-        <v>0.92430000000000001</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="D12" s="39">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="E12" s="39">
+        <v>2.7201</v>
+      </c>
+      <c r="F12" s="36">
+        <f t="shared" si="0"/>
+        <v>89.875506224688763</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" ref="G12" si="6">(ABS(F12-F13)/AVERAGE(F12:F13))*100</f>
+        <v>0.5822488015047349</v>
+      </c>
+      <c r="H12" s="120">
+        <f>AVERAGE(F12:F13)</f>
+        <v>89.61461621026011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38">
+        <v>12</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="D13" s="39">
+        <v>2.0007000000000001</v>
+      </c>
+      <c r="E13" s="39">
+        <v>2.7162000000000002</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="0"/>
+        <v>89.353726195831456</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="121"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="38">
+        <v>13</v>
+      </c>
+      <c r="C14" s="39">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="D14" s="39">
         <v>2.0009000000000001</v>
       </c>
-      <c r="E12" s="39">
-        <v>2.7141000000000002</v>
-      </c>
-      <c r="F12" s="40">
-        <f t="shared" si="0"/>
-        <v>89.449747613573891</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="129"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="38">
-        <v>11</v>
-      </c>
-      <c r="C13" s="39">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="D13" s="39">
-        <v>2.0001000000000002</v>
-      </c>
-      <c r="E13" s="39">
-        <v>2.7201</v>
-      </c>
-      <c r="F13" s="36">
-        <f t="shared" si="0"/>
-        <v>89.875506224688763</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" ref="G13" si="6">(ABS(F13-F14)/AVERAGE(F13:F14))*100</f>
-        <v>0.5822488015047349</v>
-      </c>
-      <c r="H13" s="128">
-        <f>AVERAGE(F13:F14)</f>
-        <v>89.61461621026011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38">
-        <v>12</v>
-      </c>
-      <c r="C14" s="39">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="D14" s="39">
-        <v>2.0007000000000001</v>
-      </c>
       <c r="E14" s="39">
-        <v>2.7162000000000002</v>
-      </c>
-      <c r="F14" s="40">
-        <f t="shared" si="0"/>
-        <v>89.353726195831456</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="129"/>
+        <v>2.7179000000000002</v>
+      </c>
+      <c r="F14" s="36">
+        <f t="shared" si="0"/>
+        <v>89.274826328152329</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" ref="G14" si="7">(ABS(F14-F15)/AVERAGE(F14:F15))*100</f>
+        <v>0.14748427153579144</v>
+      </c>
+      <c r="H14" s="120">
+        <f t="shared" ref="H14" si="8">AVERAGE(F14:F15)</f>
+        <v>89.209041675522727</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38">
+        <v>14</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="D15" s="39">
+        <v>2.0005999999999999</v>
+      </c>
+      <c r="E15" s="39">
+        <v>2.7039</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="0"/>
+        <v>89.143257022893124</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="121"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="38">
-        <v>13</v>
-      </c>
-      <c r="C15" s="39">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="D15" s="39">
-        <v>2.0009000000000001</v>
-      </c>
-      <c r="E15" s="39">
-        <v>2.7179000000000002</v>
-      </c>
-      <c r="F15" s="36">
-        <f t="shared" si="0"/>
-        <v>89.274826328152329</v>
-      </c>
-      <c r="G15" s="29">
-        <f t="shared" ref="G15" si="7">(ABS(F15-F16)/AVERAGE(F15:F16))*100</f>
-        <v>0.14748427153579144</v>
-      </c>
-      <c r="H15" s="128">
-        <f t="shared" ref="H15" si="8">AVERAGE(F15:F16)</f>
-        <v>89.209041675522727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
       <c r="B16" s="38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="39">
-        <v>0.92049999999999998</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="D16" s="39">
-        <v>2.0005999999999999</v>
+        <v>2.0005000000000002</v>
       </c>
       <c r="E16" s="39">
-        <v>2.7039</v>
-      </c>
-      <c r="F16" s="40">
-        <f t="shared" si="0"/>
-        <v>89.143257022893124</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="129"/>
+        <v>2.7071000000000001</v>
+      </c>
+      <c r="F16" s="36">
+        <f>(E16-C16)/(D16)*100</f>
+        <v>89.247688077980499</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" ref="G16" si="9">(ABS(F16-F17)/AVERAGE(F16:F17))*100</f>
+        <v>3.9214587826674072E-2</v>
+      </c>
+      <c r="H16" s="120">
+        <f t="shared" ref="H16" si="10">AVERAGE(F16:F17)</f>
+        <v>89.230192451887021</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="37"/>
       <c r="B17" s="38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="39">
-        <v>0.92169999999999996</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="D17" s="39">
         <v>2.0005000000000002</v>
       </c>
       <c r="E17" s="39">
-        <v>2.7071000000000001</v>
-      </c>
-      <c r="F17" s="36">
+        <v>2.7092000000000001</v>
+      </c>
+      <c r="F17" s="40">
         <f>(E17-C17)/(D17)*100</f>
-        <v>89.247688077980499</v>
-      </c>
-      <c r="G17" s="42">
-        <f t="shared" ref="G17" si="9">(ABS(F17-F18)/AVERAGE(F17:F18))*100</f>
-        <v>3.9214587826674072E-2</v>
-      </c>
-      <c r="H17" s="128">
-        <f t="shared" ref="H17" si="10">AVERAGE(F17:F18)</f>
-        <v>89.230192451887021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38">
-        <v>16</v>
-      </c>
-      <c r="C18" s="39">
-        <v>0.92449999999999999</v>
-      </c>
-      <c r="D18" s="39">
-        <v>2.0005000000000002</v>
-      </c>
-      <c r="E18" s="39">
-        <v>2.7092000000000001</v>
-      </c>
-      <c r="F18" s="40">
-        <f>(E18-C18)/(D18)*100</f>
         <v>89.212696825793543</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="129"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="121"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G18">
+  <conditionalFormatting sqref="G1:G17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>"0.4"</formula>
     </cfRule>
@@ -3052,7 +2944,7 @@
       <formula>"0.4"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G14">
+  <conditionalFormatting sqref="G12:G13">
     <cfRule type="iconSet" priority="1">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -3067,989 +2959,961 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="45" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="F2" s="50">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="G2" s="52">
+        <f t="shared" ref="G2:G19" si="0">+(F2-(D2*$P$5))*100/E2</f>
+        <v>71.246229713100945</v>
+      </c>
+      <c r="H2" s="53">
+        <f>ABS(G2-G3)/AVERAGE(G2:G3)*100</f>
+        <v>0.10116881946260597</v>
+      </c>
+      <c r="I2" s="118">
+        <f>AVERAGE(G2:G3)</f>
+        <v>71.282287437444154</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="P2" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="G3" s="61">
+        <f t="shared" si="0"/>
+        <v>71.318345161787349</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="119"/>
+      <c r="K3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="34">
+        <v>1</v>
+      </c>
+      <c r="M3" s="64">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="64">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="P3" s="64">
+        <f>O3/M3</f>
+        <v>0.99963099630996288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="33">
+        <v>3</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0.5494</v>
+      </c>
+      <c r="E4" s="67">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="F4" s="66">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G4" s="68">
+        <f t="shared" si="0"/>
+        <v>70.66766139339687</v>
+      </c>
+      <c r="H4" s="53">
+        <f t="shared" ref="H4" si="1">ABS(G4-G5)/AVERAGE(G4:G5)*100</f>
+        <v>1.2213813766081192</v>
+      </c>
+      <c r="I4" s="118">
+        <f t="shared" ref="I4" si="2">AVERAGE(G4:G5)</f>
+        <v>71.101873916615332</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="38">
+        <v>2</v>
+      </c>
+      <c r="M4" s="69">
+        <v>0.5403</v>
+      </c>
+      <c r="N4" s="65"/>
+      <c r="O4" s="69">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P4" s="64">
+        <f>O4/M4</f>
+        <v>0.99759392929853796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37">
+        <v>4</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="G5" s="61">
+        <f t="shared" si="0"/>
+        <v>71.536086439833795</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="119"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71">
+        <f>AVERAGE(P3:P4)</f>
+        <v>0.99861246280425042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="E6" s="67">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F6" s="66">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="G6" s="68">
+        <f t="shared" si="0"/>
+        <v>69.792446419059829</v>
+      </c>
+      <c r="H6" s="53">
+        <f t="shared" ref="H6" si="3">ABS(G6-G7)/AVERAGE(G6:G7)*100</f>
+        <v>0.30238828463382855</v>
+      </c>
+      <c r="I6" s="118">
+        <f t="shared" ref="I6" si="4">AVERAGE(G6:G7)</f>
+        <v>69.687083630658776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37">
+        <v>6</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="G7" s="61">
+        <f t="shared" si="0"/>
+        <v>69.581720842257738</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="33">
+        <v>7</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="G8" s="68">
+        <f t="shared" si="0"/>
+        <v>67.68572130747296</v>
+      </c>
+      <c r="H8" s="53">
+        <f t="shared" ref="H8" si="5">ABS(G8-G9)/AVERAGE(G8:G9)*100</f>
+        <v>0.17973562220090913</v>
+      </c>
+      <c r="I8" s="118">
+        <f t="shared" ref="I8" si="6">AVERAGE(G8:G9)</f>
+        <v>67.746603697310633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0.8831</v>
+      </c>
+      <c r="G9" s="61">
+        <f t="shared" si="0"/>
+        <v>67.807486087148305</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="119"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="33">
+        <v>9</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0.8599</v>
+      </c>
+      <c r="G10" s="68">
+        <f t="shared" si="0"/>
+        <v>67.581426992344234</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" ref="H10:H18" si="7">ABS(G10-G11)/AVERAGE(G10:G11)*100</f>
+        <v>0.24415712387672431</v>
+      </c>
+      <c r="I10" s="118">
+        <f t="shared" ref="I10" si="8">AVERAGE(G10:G11)</f>
+        <v>67.664030267444275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
+        <v>10</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0.874</v>
+      </c>
+      <c r="G11" s="61">
+        <f t="shared" si="0"/>
+        <v>67.746633542544302</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="119"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="33">
         <v>11</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="E3" s="58">
-        <v>0.50139999999999996</v>
-      </c>
-      <c r="F3" s="57">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="G3" s="59">
-        <f t="shared" ref="G3:G20" si="0">+(F3-(D3*$P$6))*100/E3</f>
-        <v>71.246229713100945</v>
-      </c>
-      <c r="H3" s="60">
-        <f>ABS(G3-G4)/AVERAGE(G3:G4)*100</f>
-        <v>0.10116881946260597</v>
-      </c>
-      <c r="I3" s="126">
-        <f>AVERAGE(G3:G4)</f>
-        <v>71.282287437444154</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37">
-        <v>2</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.52869999999999995</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="G4" s="68">
-        <f t="shared" si="0"/>
-        <v>71.318345161787349</v>
-      </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="127"/>
-      <c r="K4" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="34">
-        <v>1</v>
-      </c>
-      <c r="M4" s="71">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="71">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="P4" s="71">
-        <f>O4/M4</f>
-        <v>0.99963099630996288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="33">
-        <v>3</v>
-      </c>
-      <c r="D5" s="73">
-        <v>0.5494</v>
-      </c>
-      <c r="E5" s="74">
-        <v>0.50060000000000004</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0.90239999999999998</v>
-      </c>
-      <c r="G5" s="75">
-        <f t="shared" si="0"/>
-        <v>70.66766139339687</v>
-      </c>
-      <c r="H5" s="60">
-        <f t="shared" ref="H5" si="1">ABS(G5-G6)/AVERAGE(G5:G6)*100</f>
-        <v>1.2213813766081192</v>
-      </c>
-      <c r="I5" s="126">
-        <f t="shared" ref="I5" si="2">AVERAGE(G5:G6)</f>
-        <v>71.101873916615332</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="38">
-        <v>2</v>
-      </c>
-      <c r="M5" s="76">
-        <v>0.5403</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="76">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="P5" s="71">
-        <f>O5/M5</f>
-        <v>0.99759392929853796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
-        <v>4</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0.55410000000000004</v>
-      </c>
-      <c r="E6" s="67">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0.91279999999999994</v>
-      </c>
-      <c r="G6" s="68">
-        <f t="shared" si="0"/>
-        <v>71.536086439833795</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="127"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78">
-        <f>AVERAGE(P4:P5)</f>
-        <v>0.99861246280425042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="33">
-        <v>5</v>
-      </c>
-      <c r="D7" s="73">
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="E7" s="74">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0.90449999999999997</v>
-      </c>
-      <c r="G7" s="75">
-        <f t="shared" si="0"/>
-        <v>69.792446419059829</v>
-      </c>
-      <c r="H7" s="60">
-        <f t="shared" ref="H7" si="3">ABS(G7-G8)/AVERAGE(G7:G8)*100</f>
-        <v>0.30238828463382855</v>
-      </c>
-      <c r="I7" s="126">
-        <f t="shared" ref="I7" si="4">AVERAGE(G7:G8)</f>
-        <v>69.687083630658776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
-        <v>6</v>
-      </c>
-      <c r="D8" s="67">
-        <v>0.52959999999999996</v>
-      </c>
-      <c r="E8" s="67">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="G8" s="68">
-        <f t="shared" si="0"/>
-        <v>69.581720842257738</v>
-      </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="127"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="33">
-        <v>7</v>
-      </c>
-      <c r="D9" s="73">
-        <v>0.55059999999999998</v>
-      </c>
-      <c r="E9" s="74">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="F9" s="73">
-        <v>0.88839999999999997</v>
-      </c>
-      <c r="G9" s="75">
-        <f t="shared" si="0"/>
-        <v>67.68572130747296</v>
-      </c>
-      <c r="H9" s="60">
-        <f t="shared" ref="H9" si="5">ABS(G9-G10)/AVERAGE(G9:G10)*100</f>
-        <v>0.17973562220090913</v>
-      </c>
-      <c r="I9" s="126">
-        <f t="shared" ref="I9" si="6">AVERAGE(G9:G10)</f>
-        <v>67.746603697310633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37">
-        <v>8</v>
-      </c>
-      <c r="D10" s="67">
-        <v>0.54379999999999995</v>
-      </c>
-      <c r="E10" s="67">
-        <v>0.50149999999999995</v>
-      </c>
-      <c r="F10" s="67">
-        <v>0.8831</v>
-      </c>
-      <c r="G10" s="68">
-        <f t="shared" si="0"/>
-        <v>67.807486087148305</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="127"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="33">
-        <v>9</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="E11" s="74">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="F11" s="73">
-        <v>0.8599</v>
-      </c>
-      <c r="G11" s="75">
-        <f t="shared" si="0"/>
-        <v>67.581426992344234</v>
-      </c>
-      <c r="H11" s="60">
-        <f t="shared" ref="H11:H19" si="7">ABS(G11-G12)/AVERAGE(G11:G12)*100</f>
-        <v>0.24415712387672431</v>
-      </c>
-      <c r="I11" s="126">
-        <f t="shared" ref="I11" si="8">AVERAGE(G11:G12)</f>
-        <v>67.664030267444275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37">
-        <v>10</v>
-      </c>
-      <c r="D12" s="67">
-        <v>0.53539999999999999</v>
+      <c r="D12" s="66">
+        <v>0.53949999999999998</v>
       </c>
       <c r="E12" s="67">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F12" s="67">
-        <v>0.874</v>
+        <v>0.50009000000000003</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.88119999999999998</v>
       </c>
       <c r="G12" s="68">
         <f t="shared" si="0"/>
-        <v>67.746633542544302</v>
-      </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="127"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="33">
-        <v>11</v>
-      </c>
-      <c r="D13" s="73">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="E13" s="74">
-        <v>0.50009000000000003</v>
-      </c>
-      <c r="F13" s="73">
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="G13" s="75">
-        <f t="shared" si="0"/>
         <v>68.477389333341364</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H12" s="53">
         <f t="shared" si="7"/>
         <v>1.3907713128056463</v>
       </c>
-      <c r="I13" s="126">
-        <f t="shared" ref="I13" si="9">AVERAGE(G13:G14)</f>
+      <c r="I12" s="118">
+        <f t="shared" ref="I12" si="9">AVERAGE(G12:G13)</f>
         <v>68.004495823674475</v>
       </c>
     </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37">
+        <v>12</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="G13" s="61">
+        <f t="shared" si="0"/>
+        <v>67.531602314007586</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="119"/>
+    </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37">
-        <v>12</v>
-      </c>
-      <c r="D14" s="67">
-        <v>0.54630000000000001</v>
+      <c r="A14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="33">
+        <v>13</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0.53490000000000004</v>
       </c>
       <c r="E14" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="67">
-        <v>0.88319999999999999</v>
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.86339999999999995</v>
       </c>
       <c r="G14" s="68">
         <f t="shared" si="0"/>
-        <v>67.531602314007586</v>
-      </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="127"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="33">
-        <v>13</v>
-      </c>
-      <c r="D15" s="73">
-        <v>0.53490000000000004</v>
-      </c>
-      <c r="E15" s="74">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="F15" s="73">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="G15" s="75">
-        <f t="shared" si="0"/>
         <v>65.612234684337665</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H14" s="53">
         <f t="shared" si="7"/>
         <v>0.61667313598955886</v>
       </c>
-      <c r="I15" s="126">
-        <f t="shared" ref="I15" si="10">AVERAGE(G15:G16)</f>
+      <c r="I14" s="118">
+        <f t="shared" ref="I14" si="10">AVERAGE(G14:G15)</f>
         <v>65.410550039240164</v>
       </c>
     </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37">
+        <v>14</v>
+      </c>
+      <c r="D15" s="60">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G15" s="61">
+        <f t="shared" si="0"/>
+        <v>65.208865394142663</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="119"/>
+    </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37">
-        <v>14</v>
-      </c>
-      <c r="D16" s="67">
-        <v>0.54259999999999997</v>
+      <c r="A16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="33">
+        <v>15</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0.54239999999999999</v>
       </c>
       <c r="E16" s="67">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="F16" s="67">
-        <v>0.86899999999999999</v>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.86739999999999995</v>
       </c>
       <c r="G16" s="68">
         <f t="shared" si="0"/>
-        <v>65.208865394142663</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="127"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="33">
-        <v>15</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="E17" s="74">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="F17" s="73">
-        <v>0.86739999999999995</v>
-      </c>
-      <c r="G17" s="75">
-        <f t="shared" si="0"/>
         <v>65.085434600394521</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H16" s="53">
         <f t="shared" si="7"/>
         <v>0.66552310386574842</v>
       </c>
-      <c r="I17" s="126">
-        <f t="shared" ref="I17" si="11">AVERAGE(G17:G18)</f>
+      <c r="I16" s="118">
+        <f t="shared" ref="I16" si="11">AVERAGE(G16:G17)</f>
         <v>64.869573600549103</v>
       </c>
     </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37">
+        <v>16</v>
+      </c>
+      <c r="D17" s="60">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="F17" s="60">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="G17" s="61">
+        <f t="shared" si="0"/>
+        <v>64.65371260070367</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="119"/>
+    </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
-        <v>16</v>
-      </c>
-      <c r="D18" s="67">
-        <v>0.54520000000000002</v>
+      <c r="A18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="33">
+        <v>17</v>
+      </c>
+      <c r="D18" s="66">
+        <v>0.53949999999999998</v>
       </c>
       <c r="E18" s="67">
-        <v>0.50060000000000004</v>
-      </c>
-      <c r="F18" s="67">
-        <v>0.86809999999999998</v>
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="F18" s="66">
+        <v>0.87539999999999996</v>
       </c>
       <c r="G18" s="68">
         <f t="shared" si="0"/>
-        <v>64.65371260070367</v>
-      </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="127"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="33">
-        <v>17</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="E19" s="74">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="F19" s="73">
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="G19" s="75">
-        <f t="shared" si="0"/>
         <v>67.074830905978658</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H18" s="53">
         <f t="shared" si="7"/>
         <v>0.56842080276465734</v>
       </c>
-      <c r="I19" s="126">
-        <f t="shared" ref="I19" si="12">AVERAGE(G19:G20)</f>
+      <c r="I18" s="118">
+        <f t="shared" ref="I18" si="12">AVERAGE(G18:G19)</f>
         <v>66.884737524995359</v>
       </c>
     </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37">
+        <v>18</v>
+      </c>
+      <c r="D19" s="60">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="G19" s="61">
+        <f t="shared" si="0"/>
+        <v>66.694644144012045</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="119"/>
+    </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37">
-        <v>18</v>
-      </c>
-      <c r="D20" s="67">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E20" s="67">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="F20" s="67">
-        <v>0.86709999999999998</v>
-      </c>
-      <c r="G20" s="68">
-        <f t="shared" si="0"/>
-        <v>66.694644144012045</v>
-      </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="127"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="142"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49">
+        <v>236</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="G21" s="52">
+        <f t="shared" ref="G21:G32" si="13">+(F21-(D21*$P$24))*100/E21</f>
+        <v>65.305777748989343</v>
+      </c>
+      <c r="H21" s="53">
+        <f>ABS(G21-G22)/AVERAGE(G21:G22)*100</f>
+        <v>1.1131772638484148</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" ref="I21" si="14">AVERAGE(G21:G22)</f>
+        <v>64.944305129556056</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37">
+        <v>237</v>
+      </c>
+      <c r="D22" s="60">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="F22" s="60">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="G22" s="61">
+        <f t="shared" si="13"/>
+        <v>64.582832510122785</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="K22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="34">
+        <v>3</v>
+      </c>
+      <c r="M22" s="64">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="64">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="P22" s="64">
+        <f>O22/M22</f>
+        <v>0.99529544599172004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56">
-        <v>236</v>
-      </c>
-      <c r="D22" s="57">
-        <v>0.52459999999999996</v>
-      </c>
-      <c r="E22" s="57">
-        <v>0.50219999999999998</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0.85050000000000003</v>
-      </c>
-      <c r="G22" s="59">
-        <f t="shared" ref="G22:G33" si="13">+(F22-(D22*$P$25))*100/E22</f>
-        <v>65.305777748989343</v>
-      </c>
-      <c r="H22" s="60">
-        <f>ABS(G22-G23)/AVERAGE(G22:G23)*100</f>
-        <v>1.1131772638484148</v>
-      </c>
-      <c r="I22" s="59">
-        <f t="shared" ref="I22" si="14">AVERAGE(G22:G23)</f>
-        <v>64.944305129556056</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37">
-        <v>237</v>
-      </c>
-      <c r="D23" s="67">
-        <v>0.55279999999999996</v>
-      </c>
-      <c r="E23" s="67">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="F23" s="67">
-        <v>0.87470000000000003</v>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49">
+        <v>238</v>
+      </c>
+      <c r="D23" s="66">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="E23" s="66">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="F23" s="66">
+        <v>0.87380000000000002</v>
       </c>
       <c r="G23" s="68">
         <f t="shared" si="13"/>
-        <v>64.582832510122785</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+        <v>65.458931415503372</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" ref="H23" si="15">ABS(G23-G24)/AVERAGE(G23:G24)*100</f>
+        <v>0.26474853256890363</v>
+      </c>
+      <c r="I23" s="68">
+        <f t="shared" ref="I23" si="16">AVERAGE(G23:G24)</f>
+        <v>65.372395187021979</v>
+      </c>
       <c r="K23" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="34">
-        <v>3</v>
-      </c>
-      <c r="M23" s="71">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="N23" s="72"/>
-      <c r="O23" s="71">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="P23" s="71">
+        <v>51</v>
+      </c>
+      <c r="L23" s="38">
+        <v>4</v>
+      </c>
+      <c r="M23" s="69">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="N23" s="65"/>
+      <c r="O23" s="69">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="P23" s="64">
         <f>O23/M23</f>
-        <v>0.99529544599172004</v>
+        <v>0.99682954121596412</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37">
+        <v>239</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0.501</v>
+      </c>
+      <c r="F24" s="60">
+        <v>0.8538</v>
+      </c>
+      <c r="G24" s="61">
+        <f t="shared" si="13"/>
+        <v>65.285858958540587</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71">
+        <f>AVERAGE(P22:P23)</f>
+        <v>0.99606249360384203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56">
-        <v>238</v>
-      </c>
-      <c r="D24" s="73">
-        <v>0.54859999999999998</v>
-      </c>
-      <c r="E24" s="73">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="F24" s="73">
-        <v>0.87380000000000002</v>
-      </c>
-      <c r="G24" s="75">
-        <f t="shared" si="13"/>
-        <v>65.458931415503372</v>
-      </c>
-      <c r="H24" s="60">
-        <f t="shared" ref="H24" si="15">ABS(G24-G25)/AVERAGE(G24:G25)*100</f>
-        <v>0.26474853256890363</v>
-      </c>
-      <c r="I24" s="75">
-        <f t="shared" ref="I24" si="16">AVERAGE(G24:G25)</f>
-        <v>65.372395187021979</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="38">
-        <v>4</v>
-      </c>
-      <c r="M24" s="76">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="N24" s="72"/>
-      <c r="O24" s="76">
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="P24" s="71">
-        <f>O24/M24</f>
-        <v>0.99682954121596412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37">
-        <v>239</v>
-      </c>
-      <c r="D25" s="67">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="E25" s="67">
-        <v>0.501</v>
-      </c>
-      <c r="F25" s="67">
-        <v>0.8538</v>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49">
+        <v>240</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="E25" s="66">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F25" s="66">
+        <v>0.8619</v>
       </c>
       <c r="G25" s="68">
         <f t="shared" si="13"/>
-        <v>65.285858958540587</v>
-      </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78">
-        <f>AVERAGE(P23:P24)</f>
-        <v>0.99606249360384203</v>
+        <v>68.442161005985383</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" ref="H25" si="17">ABS(G25-G26)/AVERAGE(G25:G26)*100</f>
+        <v>2.2856385736913798</v>
+      </c>
+      <c r="I25" s="68">
+        <f t="shared" ref="I25" si="18">AVERAGE(G25:G26)</f>
+        <v>67.668828581770356</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37">
+        <v>241</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="G26" s="61">
+        <f t="shared" si="13"/>
+        <v>66.895496157555343</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56">
-        <v>240</v>
-      </c>
-      <c r="D26" s="73">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="E26" s="73">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="F26" s="73">
-        <v>0.8619</v>
-      </c>
-      <c r="G26" s="75">
-        <f t="shared" si="13"/>
-        <v>68.442161005985383</v>
-      </c>
-      <c r="H26" s="60">
-        <f t="shared" ref="H26" si="17">ABS(G26-G27)/AVERAGE(G26:G27)*100</f>
-        <v>2.2856385736913798</v>
-      </c>
-      <c r="I26" s="75">
-        <f t="shared" ref="I26" si="18">AVERAGE(G26:G27)</f>
-        <v>67.668828581770356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37">
-        <v>241</v>
-      </c>
-      <c r="D27" s="67">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="E27" s="67">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="F27" s="67">
-        <v>0.87849999999999995</v>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49">
+        <v>242</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F27" s="66">
+        <v>0.87309999999999999</v>
       </c>
       <c r="G27" s="68">
         <f t="shared" si="13"/>
-        <v>66.895496157555343</v>
-      </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+        <v>64.836813190474132</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" ref="H27" si="19">ABS(G27-G28)/AVERAGE(G27:G28)*100</f>
+        <v>0.3122468757489637</v>
+      </c>
+      <c r="I27" s="68">
+        <f t="shared" ref="I27" si="20">AVERAGE(G27:G28)</f>
+        <v>64.938196936024354</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37">
+        <v>243</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="E28" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="60">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="G28" s="61">
+        <f t="shared" si="13"/>
+        <v>65.039580681574577</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56">
-        <v>242</v>
-      </c>
-      <c r="D28" s="73">
-        <v>0.55049999999999999</v>
-      </c>
-      <c r="E28" s="73">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F28" s="73">
-        <v>0.87309999999999999</v>
-      </c>
-      <c r="G28" s="75">
-        <f t="shared" si="13"/>
-        <v>64.836813190474132</v>
-      </c>
-      <c r="H28" s="60">
-        <f t="shared" ref="H28" si="19">ABS(G28-G29)/AVERAGE(G28:G29)*100</f>
-        <v>0.3122468757489637</v>
-      </c>
-      <c r="I28" s="75">
-        <f t="shared" ref="I28" si="20">AVERAGE(G28:G29)</f>
-        <v>64.938196936024354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37">
-        <v>243</v>
-      </c>
-      <c r="D29" s="67">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="E29" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="67">
-        <v>0.85589999999999999</v>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49">
+        <v>244</v>
+      </c>
+      <c r="D29" s="66">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F29" s="66">
+        <v>0.83809999999999996</v>
       </c>
       <c r="G29" s="68">
         <f t="shared" si="13"/>
-        <v>65.039580681574577</v>
-      </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+        <v>63.592919915809389</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" ref="H29" si="21">ABS(G29-G30)/AVERAGE(G29:G30)*100</f>
+        <v>3.1473532792617274</v>
+      </c>
+      <c r="I29" s="68">
+        <f t="shared" ref="I29" si="22">AVERAGE(G29:G30)</f>
+        <v>64.609667154767209</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37">
+        <v>245</v>
+      </c>
+      <c r="D30" s="60">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="E30" s="60">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F30" s="60">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="G30" s="61">
+        <f t="shared" si="13"/>
+        <v>65.626414393725042</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56">
-        <v>244</v>
-      </c>
-      <c r="D30" s="73">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E30" s="73">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49">
+        <v>246</v>
+      </c>
+      <c r="D31" s="66">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="E31" s="66">
         <v>0.50029999999999997</v>
       </c>
-      <c r="F30" s="73">
-        <v>0.83809999999999996</v>
-      </c>
-      <c r="G30" s="75">
-        <f t="shared" si="13"/>
-        <v>63.592919915809389</v>
-      </c>
-      <c r="H30" s="60">
-        <f t="shared" ref="H30" si="21">ABS(G30-G31)/AVERAGE(G30:G31)*100</f>
-        <v>3.1473532792617274</v>
-      </c>
-      <c r="I30" s="75">
-        <f t="shared" ref="I30" si="22">AVERAGE(G30:G31)</f>
-        <v>64.609667154767209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37">
-        <v>245</v>
-      </c>
-      <c r="D31" s="67">
-        <v>0.53910000000000002</v>
-      </c>
-      <c r="E31" s="67">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F31" s="67">
-        <v>0.86570000000000003</v>
+      <c r="F31" s="66">
+        <v>0.8468</v>
       </c>
       <c r="G31" s="68">
         <f t="shared" si="13"/>
-        <v>65.626414393725042</v>
-      </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+        <v>64.017862458726611</v>
+      </c>
+      <c r="H31" s="53">
+        <f t="shared" ref="H31" si="23">ABS(G31-G32)/AVERAGE(G31:G32)*100</f>
+        <v>0.19943011950680198</v>
+      </c>
+      <c r="I31" s="68">
+        <f t="shared" ref="I31" si="24">AVERAGE(G31:G32)</f>
+        <v>64.081761625622633</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56">
-        <v>246</v>
-      </c>
-      <c r="D32" s="73">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="E32" s="73">
+      <c r="A32" s="59"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37">
+        <v>247</v>
+      </c>
+      <c r="D32" s="60">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="E32" s="60">
         <v>0.50029999999999997</v>
       </c>
-      <c r="F32" s="73">
-        <v>0.8468</v>
-      </c>
-      <c r="G32" s="75">
-        <f t="shared" si="13"/>
-        <v>64.017862458726611</v>
-      </c>
-      <c r="H32" s="60">
-        <f t="shared" ref="H32" si="23">ABS(G32-G33)/AVERAGE(G32:G33)*100</f>
-        <v>0.19943011950680198</v>
-      </c>
-      <c r="I32" s="75">
-        <f t="shared" ref="I32" si="24">AVERAGE(G32:G33)</f>
-        <v>64.081761625622633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37">
-        <v>247</v>
-      </c>
-      <c r="D33" s="67">
-        <v>0.53859999999999997</v>
-      </c>
-      <c r="E33" s="67">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="F33" s="67">
+      <c r="F32" s="60">
         <v>0.85740000000000005</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G32" s="61">
         <f t="shared" si="13"/>
         <v>64.145660792518655</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19">
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -4068,1197 +3932,1170 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="45" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49">
+        <v>302</v>
+      </c>
+      <c r="D2" s="50">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="F2" s="50">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G2" s="77">
+        <f t="shared" ref="G2:G19" si="0">+(F2-(D2*$P$5))*100/E2</f>
+        <v>44.237215341104935</v>
+      </c>
+      <c r="H2" s="78">
+        <f>ABS(G2-G3)/AVERAGE(G2:G3)*100</f>
+        <v>3.2372313216994226</v>
+      </c>
+      <c r="I2" s="52">
+        <f>AVERAGE(G2:G3)</f>
+        <v>43.532590021444335</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37">
+        <v>303</v>
+      </c>
+      <c r="D3" s="60">
+        <v>0.52490000000000003</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="G3" s="79">
+        <f t="shared" si="0"/>
+        <v>42.827964701783742</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="63"/>
+      <c r="K3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="L3" s="34">
+        <v>1</v>
+      </c>
+      <c r="M3" s="64">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="64">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P3" s="64">
+        <f>O3/M3</f>
+        <v>0.99400973418195437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="49">
+        <v>304</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="E4" s="67">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="F4" s="66">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="G4" s="81">
+        <f t="shared" si="0"/>
+        <v>42.31531677046479</v>
+      </c>
+      <c r="H4" s="78">
+        <f t="shared" ref="H4" si="1">ABS(G4-G5)/AVERAGE(G4:G5)*100</f>
+        <v>3.1714631924944636</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" ref="I4" si="2">AVERAGE(G4:G5)</f>
+        <v>41.654783703923236</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="38">
+        <v>2</v>
+      </c>
+      <c r="M4" s="69">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="N4" s="65"/>
+      <c r="O4" s="69">
+        <v>0.5454</v>
+      </c>
+      <c r="P4" s="64">
+        <f>O4/M4</f>
+        <v>0.99707495429616078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37">
+        <v>305</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="G5" s="79">
+        <f t="shared" si="0"/>
+        <v>40.994250637381683</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="63"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71">
+        <f>AVERAGE(P3:P4)</f>
+        <v>0.99554234423905763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49">
+        <v>306</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="E6" s="67">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F6" s="66">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="G6" s="81">
+        <f t="shared" si="0"/>
+        <v>41.370041929157132</v>
+      </c>
+      <c r="H6" s="78">
+        <f t="shared" ref="H6" si="3">ABS(G6-G7)/AVERAGE(G6:G7)*100</f>
+        <v>2.7172967142237598</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" ref="I6" si="4">AVERAGE(G6:G7)</f>
+        <v>41.9398571087401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37">
+        <v>307</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G7" s="79">
+        <f t="shared" si="0"/>
+        <v>42.509672288323067</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="49">
+        <v>308</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="G8" s="81">
+        <f t="shared" si="0"/>
+        <v>39.135529677638182</v>
+      </c>
+      <c r="H8" s="78">
+        <f t="shared" ref="H8" si="5">ABS(G8-G9)/AVERAGE(G8:G9)*100</f>
+        <v>2.8906846219810953</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" ref="I8" si="6">AVERAGE(G8:G9)</f>
+        <v>39.709467411607143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37">
+        <v>309</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="G9" s="79">
+        <f t="shared" si="0"/>
+        <v>40.283405145576104</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49">
+        <v>310</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0.501</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="G10" s="81">
+        <f t="shared" si="0"/>
+        <v>39.511438112784305</v>
+      </c>
+      <c r="H10" s="78">
+        <f t="shared" ref="H10" si="7">ABS(G10-G11)/AVERAGE(G10:G11)*100</f>
+        <v>3.9622687903014743E-2</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" ref="I10" si="8">AVERAGE(G10:G11)</f>
+        <v>39.51926741077817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
+        <v>311</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="G11" s="79">
+        <f t="shared" si="0"/>
+        <v>39.527096708772035</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="49">
+        <v>312</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.5292</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0.502</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.7278</v>
+      </c>
+      <c r="G12" s="81">
+        <f t="shared" si="0"/>
+        <v>40.031671599340768</v>
+      </c>
+      <c r="H12" s="78">
+        <f t="shared" ref="H12" si="9">ABS(G12-G13)/AVERAGE(G12:G13)*100</f>
+        <v>6.3369800518652974</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" ref="I12" si="10">AVERAGE(G12:G13)</f>
+        <v>38.802226909862036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37">
+        <v>313</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G13" s="79">
+        <f t="shared" si="0"/>
+        <v>37.572782220383303</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49">
+        <v>314</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G14" s="81">
+        <f t="shared" si="0"/>
+        <v>39.174864626437277</v>
+      </c>
+      <c r="H14" s="78">
+        <f t="shared" ref="H14" si="11">ABS(G14-G15)/AVERAGE(G14:G15)*100</f>
+        <v>0.61514509723978827</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" ref="I14" si="12">AVERAGE(G14:G15)</f>
+        <v>39.295727496998524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37">
+        <v>315</v>
+      </c>
+      <c r="D15" s="60">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="G15" s="79">
+        <f t="shared" si="0"/>
+        <v>39.41659036755977</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="49">
+        <v>316</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0.53769999999999996</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.71960000000000002</v>
+      </c>
+      <c r="G16" s="81">
+        <f t="shared" si="0"/>
+        <v>36.852005899351887</v>
+      </c>
+      <c r="H16" s="78">
+        <f t="shared" ref="H16" si="13">ABS(G16-G17)/AVERAGE(G16:G17)*100</f>
+        <v>4.2881964482218615</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" ref="I16" si="14">AVERAGE(G16:G17)</f>
+        <v>37.659461749942132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37">
+        <v>317</v>
+      </c>
+      <c r="D17" s="60">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="F17" s="60">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="G17" s="79">
+        <f t="shared" si="0"/>
+        <v>38.466917600532376</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49">
+        <v>318</v>
+      </c>
+      <c r="D18" s="66">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="F18" s="66">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="G18" s="81">
+        <f t="shared" si="0"/>
+        <v>37.378803592812105</v>
+      </c>
+      <c r="H18" s="78">
+        <f t="shared" ref="H18" si="15">ABS(G18-G19)/AVERAGE(G18:G19)*100</f>
+        <v>1.9122200433734864</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" ref="I18" si="16">AVERAGE(G18:G19)</f>
+        <v>37.024805714862261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37">
+        <v>319</v>
+      </c>
+      <c r="D19" s="60">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="G19" s="79">
+        <f t="shared" si="0"/>
+        <v>36.670807836912417</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56">
-        <v>302</v>
-      </c>
-      <c r="D3" s="57">
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="E3" s="58">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="F3" s="57">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="G3" s="85">
-        <f t="shared" ref="G3:G20" si="0">+(F3-(D3*$P$6))*100/E3</f>
-        <v>44.237215341104935</v>
-      </c>
-      <c r="H3" s="86">
-        <f>ABS(G3-G4)/AVERAGE(G3:G4)*100</f>
-        <v>3.2372313216994226</v>
-      </c>
-      <c r="I3" s="59">
-        <f>AVERAGE(G3:G4)</f>
-        <v>43.532590021444335</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37">
-        <v>303</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.52490000000000003</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.73670000000000002</v>
-      </c>
-      <c r="G4" s="87">
-        <f t="shared" si="0"/>
-        <v>42.827964701783742</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="70"/>
-      <c r="K4" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="34">
-        <v>1</v>
-      </c>
-      <c r="M4" s="71">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="71">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="P4" s="71">
-        <f>O4/M4</f>
-        <v>0.99400973418195437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="56">
-        <v>304</v>
-      </c>
-      <c r="D5" s="73">
-        <v>0.52539999999999998</v>
-      </c>
-      <c r="E5" s="74">
-        <v>0.50109999999999999</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0.73509999999999998</v>
-      </c>
-      <c r="G5" s="89">
-        <f t="shared" si="0"/>
-        <v>42.31531677046479</v>
-      </c>
-      <c r="H5" s="86">
-        <f t="shared" ref="H5" si="1">ABS(G5-G6)/AVERAGE(G5:G6)*100</f>
-        <v>3.1714631924944636</v>
-      </c>
-      <c r="I5" s="59">
-        <f t="shared" ref="I5" si="2">AVERAGE(G5:G6)</f>
-        <v>41.654783703923236</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="38">
-        <v>2</v>
-      </c>
-      <c r="M5" s="76">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="76">
-        <v>0.5454</v>
-      </c>
-      <c r="P5" s="71">
-        <f>O5/M5</f>
-        <v>0.99707495429616078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
-        <v>305</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="E6" s="67">
-        <v>0.50139999999999996</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0.72929999999999995</v>
-      </c>
-      <c r="G6" s="87">
-        <f t="shared" si="0"/>
-        <v>40.994250637381683</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="70"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78">
-        <f>AVERAGE(P4:P5)</f>
-        <v>0.99554234423905763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56">
-        <v>306</v>
-      </c>
-      <c r="D7" s="73">
-        <v>0.55120000000000002</v>
-      </c>
-      <c r="E7" s="74">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0.75580000000000003</v>
-      </c>
-      <c r="G7" s="89">
-        <f t="shared" si="0"/>
-        <v>41.370041929157132</v>
-      </c>
-      <c r="H7" s="86">
-        <f t="shared" ref="H7" si="3">ABS(G7-G8)/AVERAGE(G7:G8)*100</f>
-        <v>2.7172967142237598</v>
-      </c>
-      <c r="I7" s="59">
-        <f t="shared" ref="I7" si="4">AVERAGE(G7:G8)</f>
-        <v>41.9398571087401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
-        <v>307</v>
-      </c>
-      <c r="D8" s="67">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="E8" s="67">
-        <v>0.50060000000000004</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="G8" s="87">
-        <f t="shared" si="0"/>
-        <v>42.509672288323067</v>
-      </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="56">
-        <v>308</v>
-      </c>
-      <c r="D9" s="73">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="E9" s="74">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F9" s="73">
-        <v>0.73870000000000002</v>
-      </c>
-      <c r="G9" s="89">
-        <f t="shared" si="0"/>
-        <v>39.135529677638182</v>
-      </c>
-      <c r="H9" s="86">
-        <f t="shared" ref="H9" si="5">ABS(G9-G10)/AVERAGE(G9:G10)*100</f>
-        <v>2.8906846219810953</v>
-      </c>
-      <c r="I9" s="59">
-        <f t="shared" ref="I9" si="6">AVERAGE(G9:G10)</f>
-        <v>39.709467411607143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37">
-        <v>309</v>
-      </c>
-      <c r="D10" s="67">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E10" s="67">
-        <v>0.50039999999999996</v>
-      </c>
-      <c r="F10" s="67">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="G10" s="87">
-        <f t="shared" si="0"/>
-        <v>40.283405145576104</v>
-      </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="70"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56">
-        <v>310</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0.52769999999999995</v>
-      </c>
-      <c r="E11" s="74">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="E21" s="51">
         <v>0.501</v>
       </c>
-      <c r="F11" s="73">
-        <v>0.72330000000000005</v>
-      </c>
-      <c r="G11" s="89">
-        <f t="shared" si="0"/>
-        <v>39.511438112784305</v>
-      </c>
-      <c r="H11" s="86">
-        <f t="shared" ref="H11" si="7">ABS(G11-G12)/AVERAGE(G11:G12)*100</f>
-        <v>3.9622687903014743E-2</v>
-      </c>
-      <c r="I11" s="59">
-        <f t="shared" ref="I11" si="8">AVERAGE(G11:G12)</f>
-        <v>39.51926741077817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37">
-        <v>311</v>
-      </c>
-      <c r="D12" s="67">
-        <v>0.54059999999999997</v>
-      </c>
-      <c r="E12" s="67">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="F12" s="67">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="G12" s="87">
-        <f t="shared" si="0"/>
-        <v>39.527096708772035</v>
-      </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="56">
-        <v>312</v>
-      </c>
-      <c r="D13" s="73">
-        <v>0.5292</v>
-      </c>
-      <c r="E13" s="74">
-        <v>0.502</v>
-      </c>
-      <c r="F13" s="73">
-        <v>0.7278</v>
-      </c>
-      <c r="G13" s="89">
-        <f t="shared" si="0"/>
-        <v>40.031671599340768</v>
-      </c>
-      <c r="H13" s="86">
-        <f t="shared" ref="H13" si="9">ABS(G13-G14)/AVERAGE(G13:G14)*100</f>
-        <v>6.3369800518652974</v>
-      </c>
-      <c r="I13" s="59">
-        <f t="shared" ref="I13" si="10">AVERAGE(G13:G14)</f>
-        <v>38.802226909862036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37">
-        <v>313</v>
-      </c>
-      <c r="D14" s="67">
-        <v>0.54469999999999996</v>
-      </c>
-      <c r="E14" s="67">
-        <v>0.50229999999999997</v>
-      </c>
-      <c r="F14" s="67">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="G14" s="87">
-        <f t="shared" si="0"/>
-        <v>37.572782220383303</v>
-      </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56">
-        <v>314</v>
-      </c>
-      <c r="D15" s="73">
-        <v>0.53680000000000005</v>
-      </c>
-      <c r="E15" s="74">
-        <v>0.50260000000000005</v>
-      </c>
-      <c r="F15" s="73">
-        <v>0.73129999999999995</v>
-      </c>
-      <c r="G15" s="89">
-        <f t="shared" si="0"/>
-        <v>39.174864626437277</v>
-      </c>
-      <c r="H15" s="86">
-        <f t="shared" ref="H15" si="11">ABS(G15-G16)/AVERAGE(G15:G16)*100</f>
-        <v>0.61514509723978827</v>
-      </c>
-      <c r="I15" s="59">
-        <f t="shared" ref="I15" si="12">AVERAGE(G15:G16)</f>
-        <v>39.295727496998524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37">
-        <v>315</v>
-      </c>
-      <c r="D16" s="67">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="E16" s="67">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="F16" s="67">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="G16" s="87">
-        <f t="shared" si="0"/>
-        <v>39.41659036755977</v>
-      </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="56">
-        <v>316</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.53769999999999996</v>
-      </c>
-      <c r="E17" s="74">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="F17" s="73">
-        <v>0.71960000000000002</v>
-      </c>
-      <c r="G17" s="89">
-        <f t="shared" si="0"/>
-        <v>36.852005899351887</v>
-      </c>
-      <c r="H17" s="86">
-        <f t="shared" ref="H17" si="13">ABS(G17-G18)/AVERAGE(G17:G18)*100</f>
-        <v>4.2881964482218615</v>
-      </c>
-      <c r="I17" s="59">
-        <f t="shared" ref="I17" si="14">AVERAGE(G17:G18)</f>
-        <v>37.659461749942132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
-        <v>317</v>
-      </c>
-      <c r="D18" s="67">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="E18" s="67">
-        <v>0.50149999999999995</v>
-      </c>
-      <c r="F18" s="67">
-        <v>0.73150000000000004</v>
-      </c>
-      <c r="G18" s="87">
-        <f t="shared" si="0"/>
-        <v>38.466917600532376</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56">
-        <v>318</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0.53390000000000004</v>
-      </c>
-      <c r="E19" s="74">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="F19" s="73">
-        <v>0.71889999999999998</v>
-      </c>
-      <c r="G19" s="89">
-        <f t="shared" si="0"/>
-        <v>37.378803592812105</v>
-      </c>
-      <c r="H19" s="86">
-        <f t="shared" ref="H19" si="15">ABS(G19-G20)/AVERAGE(G19:G20)*100</f>
-        <v>1.9122200433734864</v>
-      </c>
-      <c r="I19" s="59">
-        <f t="shared" ref="I19" si="16">AVERAGE(G19:G20)</f>
-        <v>37.024805714862261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37">
-        <v>319</v>
-      </c>
-      <c r="D20" s="67">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="E20" s="67">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="F20" s="67">
-        <v>0.72670000000000001</v>
-      </c>
-      <c r="G20" s="87">
-        <f t="shared" si="0"/>
-        <v>36.670807836912417</v>
-      </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57">
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="E22" s="58">
-        <v>0.501</v>
-      </c>
-      <c r="F22" s="57">
+      <c r="F21" s="50">
         <v>0.75039999999999996</v>
       </c>
-      <c r="G22" s="85">
-        <f t="shared" ref="G22:G37" si="17">+(F22-(D22*$P$25))*100/E22</f>
+      <c r="G21" s="77">
+        <f t="shared" ref="G21:G36" si="17">+(F21-(D21*$P$24))*100/E21</f>
         <v>40.928947869038907</v>
       </c>
-      <c r="H22" s="94">
-        <f>ABS(G22-G23)/AVERAGE(G22:G23)*100</f>
+      <c r="H21" s="86">
+        <f>ABS(G21-G22)/AVERAGE(G21:G22)*100</f>
         <v>0.67445088904880957</v>
       </c>
-      <c r="I22" s="59">
-        <f>AVERAGE(G22:G23)</f>
+      <c r="I21" s="52">
+        <f>AVERAGE(G21:G22)</f>
         <v>41.067437718439699</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="67">
+      <c r="K21" s="33"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="60">
         <v>0.55469999999999997</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E22" s="60">
         <v>0.50180000000000002</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F22" s="60">
         <v>0.76029999999999998</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G22" s="79">
         <f t="shared" si="17"/>
         <v>41.20592756784049</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="70"/>
-      <c r="K23" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="34">
+      <c r="H22" s="80"/>
+      <c r="I22" s="63"/>
+      <c r="K22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="34">
         <v>3</v>
       </c>
-      <c r="M23" s="71">
+      <c r="M22" s="64">
         <v>0.53869999999999996</v>
       </c>
-      <c r="N23" s="72"/>
-      <c r="O23" s="71">
+      <c r="N22" s="65"/>
+      <c r="O22" s="64">
         <v>0.53849999999999998</v>
       </c>
-      <c r="P23" s="71">
-        <f>O23/M23</f>
+      <c r="P22" s="64">
+        <f>O22/M22</f>
         <v>0.99962873584555412</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="73">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="66">
         <v>0.54</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E23" s="67">
         <v>0.50060000000000004</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F23" s="66">
         <v>0.74570000000000003</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G23" s="81">
         <f t="shared" si="17"/>
         <v>41.318478416896191</v>
       </c>
-      <c r="H24" s="86">
-        <f t="shared" ref="H24" si="18">ABS(G24-G25)/AVERAGE(G24:G25)*100</f>
+      <c r="H23" s="78">
+        <f t="shared" ref="H23" si="18">ABS(G23-G24)/AVERAGE(G23:G24)*100</f>
         <v>0.30597198670934528</v>
       </c>
-      <c r="I24" s="75">
-        <f t="shared" ref="I24" si="19">AVERAGE(G24:G25)</f>
+      <c r="I23" s="68">
+        <f t="shared" ref="I23" si="19">AVERAGE(G23:G24)</f>
         <v>41.381786754430365</v>
       </c>
-      <c r="K24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="38">
+      <c r="K23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="38">
         <v>4</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M23" s="69">
         <v>0.51919999999999999</v>
       </c>
-      <c r="N24" s="72"/>
-      <c r="O24" s="76">
+      <c r="N23" s="65"/>
+      <c r="O23" s="69">
         <v>0.51719999999999999</v>
       </c>
-      <c r="P24" s="71">
-        <f>O24/M24</f>
+      <c r="P23" s="64">
+        <f>O23/M23</f>
         <v>0.99614791987673346</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="67">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="60">
         <v>0.53639999999999999</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E24" s="60">
         <v>0.50049999999999994</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F24" s="60">
         <v>0.74270000000000003</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G24" s="79">
         <f t="shared" si="17"/>
         <v>41.445095091964546</v>
       </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="70"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78">
-        <f>AVERAGE(P23:P24)</f>
+      <c r="H24" s="80"/>
+      <c r="I24" s="63"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71">
+        <f>AVERAGE(P22:P23)</f>
         <v>0.99788832786114379</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="73">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="66">
         <v>0.5302</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E25" s="67">
         <v>0.50009999999999999</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F25" s="66">
         <v>0.72070000000000001</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G25" s="81">
         <f t="shared" si="17"/>
         <v>38.316258461911929</v>
       </c>
-      <c r="H26" s="86">
-        <f t="shared" ref="H26" si="20">ABS(G26-G27)/AVERAGE(G26:G27)*100</f>
+      <c r="H25" s="78">
+        <f t="shared" ref="H25" si="20">ABS(G25-G26)/AVERAGE(G25:G26)*100</f>
         <v>1.2886410681665112</v>
       </c>
-      <c r="I26" s="75">
-        <f t="shared" ref="I26" si="21">AVERAGE(G26:G27)</f>
+      <c r="I25" s="68">
+        <f t="shared" ref="I25" si="21">AVERAGE(G25:G26)</f>
         <v>38.564738994166959</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="67">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="60">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E26" s="60">
         <v>0.50119999999999998</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F26" s="60">
         <v>0.72940000000000005</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G26" s="79">
         <f t="shared" si="17"/>
         <v>38.813219526421989</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="73">
+      <c r="H26" s="80"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="66">
         <v>0.53249999999999997</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E27" s="67">
         <v>0.50080000000000002</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F27" s="66">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G28" s="89">
+      <c r="G27" s="81">
         <f t="shared" si="17"/>
         <v>40.659837343039328</v>
       </c>
-      <c r="H28" s="86">
-        <f t="shared" ref="H28" si="22">ABS(G28-G29)/AVERAGE(G28:G29)*100</f>
+      <c r="H27" s="78">
+        <f t="shared" ref="H27" si="22">ABS(G27-G28)/AVERAGE(G27:G28)*100</f>
         <v>0.33487673630542963</v>
       </c>
-      <c r="I28" s="75">
-        <f t="shared" ref="I28" si="23">AVERAGE(G28:G29)</f>
+      <c r="I27" s="68">
+        <f t="shared" ref="I27" si="23">AVERAGE(G27:G28)</f>
         <v>40.591870976673334</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="67">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="60">
         <v>0.53139999999999998</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E28" s="60">
         <v>0.50049999999999994</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F28" s="60">
         <v>0.73309999999999997</v>
       </c>
-      <c r="G29" s="87">
+      <c r="G28" s="79">
         <f t="shared" si="17"/>
         <v>40.523904610307333</v>
       </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="73">
+      <c r="H28" s="80"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="66">
         <v>0.53180000000000005</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E29" s="67">
         <v>0.50039999999999996</v>
       </c>
-      <c r="F30" s="73">
+      <c r="F29" s="66">
         <v>0.73270000000000002</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G29" s="81">
         <f t="shared" si="17"/>
         <v>40.372299609001544</v>
       </c>
-      <c r="H30" s="94">
-        <f t="shared" ref="H30" si="24">ABS(G30-G31)/AVERAGE(G30:G31)*100</f>
+      <c r="H29" s="86">
+        <f t="shared" ref="H29" si="24">ABS(G29-G30)/AVERAGE(G29:G30)*100</f>
         <v>1.9930815140228004</v>
       </c>
-      <c r="I30" s="75">
-        <f t="shared" ref="I30" si="25">AVERAGE(G30:G31)</f>
+      <c r="I29" s="68">
+        <f t="shared" ref="I29" si="25">AVERAGE(G29:G30)</f>
         <v>39.973942975070472</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="67">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="60">
         <v>0.5282</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E30" s="60">
         <v>0.50060000000000004</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F30" s="60">
         <v>0.72519999999999996</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G30" s="79">
         <f t="shared" si="17"/>
         <v>39.575586341139399</v>
       </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="73">
+      <c r="H30" s="80"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="66">
         <v>0.52759999999999996</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E31" s="67">
         <v>0.50029999999999997</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F31" s="66">
         <v>0.71860000000000002</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G31" s="81">
         <f t="shared" si="17"/>
         <v>38.399783773827842</v>
       </c>
-      <c r="H32" s="86">
-        <f t="shared" ref="H32" si="26">ABS(G32-G33)/AVERAGE(G32:G33)*100</f>
+      <c r="H31" s="78">
+        <f t="shared" ref="H31" si="26">ABS(G31-G32)/AVERAGE(G31:G32)*100</f>
         <v>2.2073640594582606</v>
       </c>
-      <c r="I32" s="75">
-        <f t="shared" ref="I32:I42" si="27">AVERAGE(G32:G33)</f>
+      <c r="I31" s="68">
+        <f t="shared" ref="I31:I41" si="27">AVERAGE(G31:G32)</f>
         <v>38.828325019513031</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="67">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="60">
         <v>0.54049999999999998</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E32" s="60">
         <v>0.50039999999999996</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F32" s="60">
         <v>0.73580000000000001</v>
       </c>
-      <c r="G33" s="87">
+      <c r="G32" s="79">
         <f t="shared" si="17"/>
         <v>39.256866265198212</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="73">
+      <c r="H32" s="80"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="66">
         <v>0.52380000000000004</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E33" s="67">
         <v>0.5</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F33" s="66">
         <v>0.74209999999999998</v>
       </c>
-      <c r="G34" s="89">
+      <c r="G33" s="81">
         <f t="shared" si="17"/>
         <v>43.881218773266561</v>
       </c>
-      <c r="H34" s="86">
-        <f t="shared" ref="H34" si="28">ABS(G34-G35)/AVERAGE(G34:G35)*100</f>
+      <c r="H33" s="78">
+        <f t="shared" ref="H33" si="28">ABS(G33-G34)/AVERAGE(G33:G34)*100</f>
         <v>0.46355548993542667</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I33" s="68">
         <f t="shared" si="27"/>
         <v>43.983161954209521</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="67">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="60">
         <v>0.52739999999999998</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E34" s="60">
         <v>0.50019999999999998</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F34" s="60">
         <v>0.74680000000000002</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G34" s="79">
         <f t="shared" si="17"/>
         <v>44.085105135152489</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="70"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="73">
+      <c r="H34" s="80"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="66">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E35" s="67">
         <v>0.50049999999999994</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F35" s="66">
         <v>0.72430000000000005</v>
       </c>
-      <c r="G36" s="89">
+      <c r="G35" s="81">
         <f t="shared" si="17"/>
         <v>42.135155907181144</v>
       </c>
-      <c r="H36" s="94">
-        <f t="shared" ref="H36" si="29">ABS(G36-G37)/AVERAGE(G36:G37)*100</f>
+      <c r="H35" s="86">
+        <f t="shared" ref="H35" si="29">ABS(G35-G36)/AVERAGE(G35:G36)*100</f>
         <v>1.5198843158258606</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I35" s="68">
         <f t="shared" si="27"/>
         <v>42.457810710094023</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="67">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="60">
         <v>0.52859999999999996</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E36" s="60">
         <v>0.50049999999999994</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F36" s="60">
         <v>0.74160000000000004</v>
       </c>
-      <c r="G37" s="87">
+      <c r="G36" s="79">
         <f t="shared" si="17"/>
         <v>42.780465513006895</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="70"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="73">
+      <c r="H36" s="80"/>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="66">
         <v>0.52159999999999995</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E37" s="67">
         <v>0.50080000000000002</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F37" s="66">
         <v>0.73360000000000003</v>
       </c>
-      <c r="G38" s="89">
-        <f>+(F38-(D38*$P$25))*100/E38</f>
+      <c r="G37" s="81">
+        <f>+(F37-(D37*$P$24))*100/E37</f>
         <v>42.552206107753079</v>
       </c>
-      <c r="H38" s="86">
-        <f t="shared" ref="H38" si="30">ABS(G38-G39)/AVERAGE(G38:G39)*100</f>
+      <c r="H37" s="78">
+        <f t="shared" ref="H37" si="30">ABS(G37-G38)/AVERAGE(G37:G38)*100</f>
         <v>1.227819837951506</v>
       </c>
-      <c r="I38" s="75">
+      <c r="I37" s="68">
         <f t="shared" si="27"/>
         <v>42.292567838801133</v>
       </c>
     </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="60">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="E38" s="60">
+        <v>0.501</v>
+      </c>
+      <c r="F38" s="60">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="G38" s="79">
+        <f>+(F38-(D38*$P$24))*100/E38</f>
+        <v>42.03292956984918</v>
+      </c>
+      <c r="H38" s="80"/>
+      <c r="I38" s="63"/>
+    </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="67">
-        <v>0.51380000000000003</v>
+      <c r="A39" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="66">
+        <v>0.52529999999999999</v>
       </c>
       <c r="E39" s="67">
-        <v>0.501</v>
-      </c>
-      <c r="F39" s="67">
-        <v>0.72330000000000005</v>
-      </c>
-      <c r="G39" s="87">
-        <f>+(F39-(D39*$P$25))*100/E39</f>
-        <v>42.03292956984918</v>
-      </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="73">
-        <v>0.52529999999999999</v>
-      </c>
-      <c r="E40" s="74">
         <v>0.50049999999999994</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F39" s="66">
         <v>0.72929999999999995</v>
       </c>
-      <c r="G40" s="89">
-        <f>+(F40-(D40*$P$25))*100/E40</f>
+      <c r="G39" s="81">
+        <f>+(F39-(D39*$P$24))*100/E39</f>
         <v>40.980871403504722</v>
       </c>
-      <c r="H40" s="86">
-        <f t="shared" ref="H40" si="31">ABS(G40-G41)/AVERAGE(G40:G41)*100</f>
+      <c r="H39" s="78">
+        <f t="shared" ref="H39" si="31">ABS(G39-G40)/AVERAGE(G39:G40)*100</f>
         <v>0.51693154294051324</v>
       </c>
-      <c r="I40" s="75">
+      <c r="I39" s="68">
         <f t="shared" si="27"/>
         <v>40.875222943184433</v>
       </c>
     </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="60">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="E40" s="60">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="F40" s="60">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G40" s="79">
+        <f>+(F40-(D40*$P$24))*100/E40</f>
+        <v>40.769574482864144</v>
+      </c>
+      <c r="H40" s="80"/>
+      <c r="I40" s="63"/>
+    </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="67">
-        <v>0.52610000000000001</v>
+      <c r="A41" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="66">
+        <v>0.52890000000000004</v>
       </c>
       <c r="E41" s="67">
         <v>0.50039999999999996</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="66">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G41" s="87">
-        <f>+(F41-(D41*$P$25))*100/E41</f>
-        <v>40.769574482864144</v>
-      </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="73">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="E42" s="74">
-        <v>0.50039999999999996</v>
-      </c>
-      <c r="F42" s="73">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="G42" s="89">
-        <f t="shared" ref="G42:G43" si="32">+(F42-(D42*$P$25))*100/E42</f>
+      <c r="G41" s="81">
+        <f t="shared" ref="G41:G42" si="32">+(F41-(D41*$P$24))*100/E41</f>
         <v>40.211203715875492</v>
       </c>
-      <c r="H42" s="94">
-        <f t="shared" ref="H42" si="33">ABS(G42-G43)/AVERAGE(G42:G43)*100</f>
+      <c r="H41" s="86">
+        <f t="shared" ref="H41" si="33">ABS(G41-G42)/AVERAGE(G41:G42)*100</f>
         <v>1.5495197616330338</v>
       </c>
-      <c r="I42" s="75">
+      <c r="I41" s="68">
         <f t="shared" si="27"/>
         <v>40.525176525222989</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="67">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="60">
         <v>0.51890000000000003</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E42" s="60">
         <v>0.5</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F42" s="60">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G43" s="87">
+      <c r="G42" s="79">
         <f t="shared" si="32"/>
         <v>40.839149334570493</v>
       </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="93"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="63"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,46 +5106,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="97"/>
-    <col min="4" max="4" width="11.42578125" style="98"/>
-    <col min="5" max="5" width="11.42578125" style="97"/>
+    <col min="2" max="3" width="11.42578125" style="89"/>
+    <col min="4" max="4" width="11.42578125" style="90"/>
+    <col min="5" max="5" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="97" t="s">
-        <v>58</v>
+      <c r="B1" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="91">
         <v>9.3439999999999994</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="91">
         <v>49.8</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="92">
         <f>((B2*0.1)/((C2/1000)*0.74))</f>
         <v>25.355475957885599</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="92">
         <f>AVERAGE(D2:D3)</f>
         <v>25.887469888271482</v>
       </c>
@@ -5317,37 +5154,37 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="91">
         <v>9.6969999999999992</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="91">
         <v>49.6</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="92">
         <f t="shared" ref="D3:D31" si="0">((B3*0.1)/((C3/1000)*0.74))</f>
         <v>26.419463818657366</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="91">
         <v>10.638</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="91">
         <v>52.3</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="92">
         <f t="shared" si="0"/>
         <v>27.486951578729784</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="92">
         <f t="shared" ref="E4" si="1">AVERAGE(D4:D5)</f>
         <v>27.693953212896211</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="72">
         <v>25.887469888271482</v>
       </c>
     </row>
@@ -5355,18 +5192,18 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="91">
         <v>10.343999999999999</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="91">
         <v>50.1</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="92">
         <f t="shared" si="0"/>
         <v>27.900954847062636</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="H5" s="79">
+      <c r="E5" s="91"/>
+      <c r="H5" s="72">
         <v>27.693953212896211</v>
       </c>
     </row>
@@ -5374,21 +5211,21 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="91">
         <v>10.638</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="91">
         <v>50.4</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="92">
         <f t="shared" si="0"/>
         <v>28.523166023166024</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="92">
         <f t="shared" ref="E6" si="2">AVERAGE(D6:D7)</f>
         <v>28.830589888282198</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="72">
         <v>28.830589888282198</v>
       </c>
     </row>
@@ -5396,18 +5233,18 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="91">
         <v>10.932</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="91">
         <v>50.7</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="92">
         <f t="shared" si="0"/>
         <v>29.138013753398372</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="H7" s="79">
+      <c r="E7" s="91"/>
+      <c r="H7" s="72">
         <v>26.967815785944929</v>
       </c>
     </row>
@@ -5415,21 +5252,21 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="91">
         <v>10.462</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="91">
         <v>53</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="92">
         <f t="shared" si="0"/>
         <v>26.675165731769507</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="92">
         <f t="shared" ref="E8" si="3">AVERAGE(D8:D9)</f>
         <v>26.967815785944929</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="72">
         <v>27.522928759617187</v>
       </c>
     </row>
@@ -5437,18 +5274,18 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="91">
         <v>10.51</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="91">
         <v>52.1</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="92">
         <f t="shared" si="0"/>
         <v>27.26046584012035</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="H9" s="79">
+      <c r="E9" s="91"/>
+      <c r="H9" s="72">
         <v>26.859964079423932</v>
       </c>
     </row>
@@ -5456,21 +5293,21 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="91">
         <v>10.471</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="91">
         <v>53.3</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="92">
         <f t="shared" si="0"/>
         <v>26.547842401500944</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="92">
         <f t="shared" ref="E10" si="4">AVERAGE(D10:D11)</f>
         <v>27.522928759617187</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="72">
         <v>28.785647197444675</v>
       </c>
     </row>
@@ -5478,18 +5315,18 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="91">
         <v>10.481</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="91">
         <v>49.7</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="92">
         <f t="shared" si="0"/>
         <v>28.498015117733431</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="H11" s="79">
+      <c r="E11" s="91"/>
+      <c r="H11" s="72">
         <v>27.327059266496903</v>
       </c>
     </row>
@@ -5497,21 +5334,21 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="91">
         <v>10.324</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="91">
         <v>52.1</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="92">
         <f t="shared" si="0"/>
         <v>26.77802562639415</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="92">
         <f t="shared" ref="E12" si="5">AVERAGE(D12:D13)</f>
         <v>26.859964079423932</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="72">
         <v>23.77524094902514</v>
       </c>
     </row>
@@ -5519,18 +5356,18 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="91">
         <v>10.128</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="91">
         <v>50.8</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="92">
         <f t="shared" si="0"/>
         <v>26.941902532453717</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="H13" s="79">
+      <c r="E13" s="91"/>
+      <c r="H13" s="72">
         <v>22.486634346599637</v>
       </c>
     </row>
@@ -5538,21 +5375,21 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="91">
         <v>10.696999999999999</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="91">
         <v>51.9</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="92">
         <f t="shared" si="0"/>
         <v>27.852418892881314</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="92">
         <f t="shared" ref="E14" si="6">AVERAGE(D14:D15)</f>
         <v>28.785647197444675</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="72">
         <v>23.008485860475211</v>
       </c>
     </row>
@@ -5560,18 +5397,18 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="91">
         <v>10.952</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="91">
         <v>49.8</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="92">
         <f t="shared" si="0"/>
         <v>29.718875502008036</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="H15" s="79">
+      <c r="E15" s="91"/>
+      <c r="H15" s="72">
         <v>22.82208823304714</v>
       </c>
     </row>
@@ -5579,21 +5416,21 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="91">
         <v>10.54</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="91">
         <v>51.3</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="92">
         <f t="shared" si="0"/>
         <v>27.764606711975137</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="92">
         <f t="shared" ref="E16" si="7">AVERAGE(D16:D17)</f>
         <v>27.327059266496903</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="72">
         <v>22.358771594191225</v>
       </c>
     </row>
@@ -5601,18 +5438,18 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="91">
         <v>10.167999999999999</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="91">
         <v>51.1</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="92">
         <f t="shared" si="0"/>
         <v>26.889511821018669</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="H17" s="79">
+      <c r="E17" s="91"/>
+      <c r="H17" s="72">
         <v>22.746571387875733</v>
       </c>
     </row>
@@ -5620,21 +5457,21 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="99">
+      <c r="B18" s="91">
         <v>8.9529999999999994</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="91">
         <v>49.9</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="92">
         <f t="shared" si="0"/>
         <v>24.245788875047392</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="92">
         <f t="shared" ref="E18" si="8">AVERAGE(D18:D19)</f>
         <v>23.77524094902514</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="72">
         <v>22.555148074816071</v>
       </c>
     </row>
@@ -5642,33 +5479,33 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="91">
         <v>8.5709999999999997</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="91">
         <v>49.7</v>
       </c>
-      <c r="D19" s="100">
+      <c r="D19" s="92">
         <f t="shared" si="0"/>
         <v>23.304693023002883</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="99">
+      <c r="B20" s="91">
         <v>8.9250000000000007</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="91">
         <v>52.1</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D20" s="92">
         <f t="shared" si="0"/>
         <v>23.149348965087931</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="92">
         <f t="shared" ref="E20" si="9">AVERAGE(D20:D21)</f>
         <v>22.486634346599637</v>
       </c>
@@ -5677,33 +5514,33 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="99">
+      <c r="B21" s="91">
         <v>8.0909999999999993</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="91">
         <v>50.1</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="92">
         <f t="shared" si="0"/>
         <v>21.823919728111346</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="91">
         <v>8.3309999999999995</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="91">
         <v>49.8</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="92">
         <f t="shared" si="0"/>
         <v>22.606642787365679</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="92">
         <f t="shared" ref="E22" si="10">AVERAGE(D22:D23)</f>
         <v>23.008485860475211</v>
       </c>
@@ -5712,33 +5549,33 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="91">
         <v>8.9390000000000001</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="91">
         <v>51.6</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="92">
         <f t="shared" si="0"/>
         <v>23.410328933584747</v>
       </c>
-      <c r="E23" s="99"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="91">
         <v>8.4160000000000004</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="91">
         <v>50.4</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="92">
         <f t="shared" si="0"/>
         <v>22.565422565422566</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="92">
         <f t="shared" ref="E24" si="11">AVERAGE(D24:D25)</f>
         <v>22.82208823304714</v>
       </c>
@@ -5747,33 +5584,33 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="99">
+      <c r="B25" s="91">
         <v>8.7270000000000003</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="91">
         <v>51.1</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="92">
         <f t="shared" si="0"/>
         <v>23.07875390067171</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="99">
+      <c r="B26" s="91">
         <v>8.5289999999999999</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="91">
         <v>51.8</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="92">
         <f t="shared" si="0"/>
         <v>22.250339142231034</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E26" s="92">
         <f t="shared" ref="E26" si="12">AVERAGE(D26:D27)</f>
         <v>22.358771594191225</v>
       </c>
@@ -5782,33 +5619,33 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="99">
+      <c r="B27" s="91">
         <v>8.5289999999999999</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="91">
         <v>51.3</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="92">
         <f t="shared" si="0"/>
         <v>22.467204046151416</v>
       </c>
-      <c r="E27" s="99"/>
+      <c r="E27" s="91"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="99">
+      <c r="B28" s="91">
         <v>8.43</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="91">
         <v>50.4</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="92">
         <f t="shared" si="0"/>
         <v>22.6029601029601</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="92">
         <f t="shared" ref="E28" si="13">AVERAGE(D28:D29)</f>
         <v>22.746571387875733</v>
       </c>
@@ -5817,33 +5654,33 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="99">
+      <c r="B29" s="91">
         <v>8.5709999999999997</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="91">
         <v>50.6</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="92">
         <f t="shared" si="0"/>
         <v>22.890182672791369</v>
       </c>
-      <c r="E29" s="99"/>
+      <c r="E29" s="91"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="99">
+      <c r="B30" s="91">
         <v>8.218</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="91">
         <v>51</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="92">
         <f t="shared" si="0"/>
         <v>21.775304716481191</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="92">
         <f t="shared" ref="E30" si="14">AVERAGE(D30:D31)</f>
         <v>22.555148074816071</v>
       </c>
@@ -5852,17 +5689,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="99">
+      <c r="B31" s="91">
         <v>8.4440000000000008</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="91">
         <v>48.9</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="92">
         <f t="shared" si="0"/>
         <v>23.33499143315095</v>
       </c>
-      <c r="E31" s="99"/>
+      <c r="E31" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5873,965 +5710,963 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="102" t="s">
+      <c r="A1" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="96">
         <v>0.25090000000000001</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="96">
         <v>0.6724</v>
       </c>
-      <c r="F2" s="105">
+      <c r="F2" s="97">
         <f>(1-((E2-(C2*I$26))/D2))*100</f>
         <v>49.278348137110093</v>
       </c>
-      <c r="G2" s="124">
+      <c r="G2" s="116">
         <f>AVERAGE(F2:F3)</f>
         <v>52.50723162329836</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="98">
         <f>ABS(F2-F3)/AVERAGE(F2:F3)*100</f>
         <v>12.298814416091041</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105" t="e">
+      <c r="I2" s="97"/>
+      <c r="J2" s="97" t="e">
         <f>F2/(I2/100)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99">
         <v>0.51859999999999995</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="99">
         <v>0.25080000000000002</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="99">
         <v>0.63070000000000004</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="100">
         <f>(1-((E3-(C3*I$26))/D3))*100</f>
         <v>55.736115109486626</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108" t="e">
+      <c r="G3" s="117"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100" t="e">
         <f t="shared" ref="J3:J25" si="0">F3/(I3/100)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104">
+      <c r="A4" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96">
         <v>0.54139999999999999</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="102">
         <v>0.25159999999999999</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="102">
         <v>0.65810000000000002</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="97">
         <f t="shared" ref="F4:F25" si="1">(1-((E4-(C4*I$26))/D4))*100</f>
         <v>54.067539718384197</v>
       </c>
-      <c r="G4" s="124">
+      <c r="G4" s="116">
         <f t="shared" ref="G4" si="2">AVERAGE(F4:F5)</f>
         <v>53.638802157293703</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="98">
         <f t="shared" ref="H4" si="3">ABS(F4-F5)/AVERAGE(F4:F5)*100</f>
         <v>1.5986097520717815</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111" t="e">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99">
         <v>0.5302</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="99">
         <v>0.25109999999999999</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="99">
         <v>0.64880000000000004</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="100">
         <f t="shared" si="1"/>
         <v>53.21006459620321</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108" t="e">
+      <c r="G5" s="117"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104">
+      <c r="A6" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96">
         <v>0.5464</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="102">
         <v>0.25109999999999999</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="102">
         <v>0.65590000000000004</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="97">
         <f t="shared" si="1"/>
         <v>56.847631275396623</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="116">
         <f t="shared" ref="G6" si="4">AVERAGE(F6:F7)</f>
         <v>54.547030318958051</v>
       </c>
-      <c r="H6" s="106">
+      <c r="H6" s="98">
         <f t="shared" ref="H6" si="5">ABS(F6-F7)/AVERAGE(F6:F7)*100</f>
         <v>8.4352931515649701</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111" t="e">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99">
         <v>0.54359999999999997</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="99">
         <v>0.251</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="99">
         <v>0.66459999999999997</v>
       </c>
-      <c r="F7" s="108">
+      <c r="F7" s="100">
         <f t="shared" si="1"/>
         <v>52.246429362519486</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108" t="e">
+      <c r="G7" s="117"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104">
+      <c r="A8" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96">
         <v>0.53239999999999998</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="102">
         <v>0.251</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="102">
         <v>0.67210000000000003</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="97">
         <f t="shared" si="1"/>
         <v>44.786884450014085</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="116">
         <f t="shared" ref="G8" si="6">AVERAGE(F8:F9)</f>
         <v>48.854204776440369</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="98">
         <f t="shared" ref="H8" si="7">ABS(F8-F9)/AVERAGE(F8:F9)*100</f>
         <v>16.650850607592847</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111" t="e">
+      <c r="I8" s="103"/>
+      <c r="J8" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99">
         <v>0.53259999999999996</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="99">
         <v>0.25040000000000001</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="99">
         <v>0.65159999999999996</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="100">
         <f t="shared" si="1"/>
         <v>52.92152510286666</v>
       </c>
-      <c r="G9" s="125"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108" t="e">
+      <c r="G9" s="117"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104">
+      <c r="A10" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96">
         <v>0.51019999999999999</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="102">
         <v>0.25090000000000001</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="102">
         <v>0.63670000000000004</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="97">
         <f t="shared" si="1"/>
         <v>50.007406694619846</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="116">
         <f t="shared" ref="G10" si="8">AVERAGE(F10:F11)</f>
         <v>48.910981025188306</v>
       </c>
-      <c r="H10" s="106">
+      <c r="H10" s="98">
         <f t="shared" ref="H10" si="9">ABS(F10-F11)/AVERAGE(F10:F11)*100</f>
         <v>4.4833517809299135</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111" t="e">
+      <c r="I10" s="103"/>
+      <c r="J10" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107">
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99">
         <v>0.53839999999999999</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="99">
         <v>0.25040000000000001</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="99">
         <v>0.67020000000000002</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F11" s="100">
         <f t="shared" si="1"/>
         <v>47.814555355756774</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108" t="e">
+      <c r="G11" s="117"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104">
+      <c r="A12" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96">
         <v>0.51829999999999998</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="102">
         <v>0.25180000000000002</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="102">
         <v>0.64649999999999996</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="97">
         <f t="shared" si="1"/>
         <v>49.517691962878729</v>
       </c>
-      <c r="G12" s="124">
+      <c r="G12" s="116">
         <f t="shared" ref="G12" si="10">AVERAGE(F12:F13)</f>
         <v>49.453910486966123</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="98">
         <f t="shared" ref="H12" si="11">ABS(F12-F13)/AVERAGE(F12:F13)*100</f>
         <v>0.25794310413296601</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111" t="e">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="99">
         <v>0.24979999999999999</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="99">
         <v>0.64149999999999996</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="100">
         <f t="shared" si="1"/>
         <v>49.39012901105351</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108" t="e">
+      <c r="G13" s="117"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104">
+      <c r="A14" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96">
         <v>0.54320000000000002</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="102">
         <v>0.25130000000000002</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="102">
         <v>0.66549999999999998</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="97">
         <f t="shared" si="1"/>
         <v>51.785793841559304</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="116">
         <f t="shared" ref="G14" si="12">AVERAGE(F14:F15)</f>
         <v>49.935905809120158</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="98">
         <f t="shared" ref="H14" si="13">ABS(F14-F15)/AVERAGE(F14:F15)*100</f>
         <v>7.4090496706331557</v>
       </c>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111" t="e">
+      <c r="I14" s="103"/>
+      <c r="J14" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99">
         <v>0.52690000000000003</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="99">
         <v>0.25059999999999999</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="99">
         <v>0.65810000000000002</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="100">
         <f t="shared" si="1"/>
         <v>48.086017776681004</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108" t="e">
+      <c r="G15" s="117"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104">
+      <c r="A16" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96">
         <v>0.53039999999999998</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="102">
         <v>0.25109999999999999</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="102">
         <v>0.64019999999999999</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="97">
         <f t="shared" si="1"/>
         <v>56.714811266072829</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="116">
         <f t="shared" ref="G16" si="14">AVERAGE(F16:F17)</f>
         <v>57.851311804303066</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="98">
         <f t="shared" ref="H16" si="15">ABS(F16-F17)/AVERAGE(F16:F17)*100</f>
         <v>3.9290398187503364</v>
       </c>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111" t="e">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107">
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99">
         <v>0.53639999999999999</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="99">
         <v>0.25059999999999999</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="99">
         <v>0.64029999999999998</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F17" s="100">
         <f t="shared" si="1"/>
         <v>58.98781234253331</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108" t="e">
+      <c r="G17" s="117"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104">
+      <c r="A18" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96">
         <v>0.54420000000000002</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="104">
         <v>0.2515</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="104">
         <v>0.65029999999999999</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="97">
         <f t="shared" si="1"/>
         <v>58.266319826660748</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G18" s="116">
         <f t="shared" ref="G18" si="16">AVERAGE(F18:F19)</f>
         <v>59.648373689053841</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="98">
         <f t="shared" ref="H18" si="17">ABS(F18-F19)/AVERAGE(F18:F19)*100</f>
         <v>4.6340035005739617</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113" t="e">
+      <c r="I18" s="105"/>
+      <c r="J18" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107">
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99">
         <v>0.5373</v>
       </c>
-      <c r="D19" s="107">
+      <c r="D19" s="99">
         <v>0.25090000000000001</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="99">
         <v>0.63619999999999999</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F19" s="100">
         <f t="shared" si="1"/>
         <v>61.030427551446941</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108" t="e">
+      <c r="G19" s="117"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104">
+      <c r="A20" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96">
         <v>0.5323</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D20" s="102">
         <v>0.2495</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="102">
         <v>0.64549999999999996</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="97">
         <f t="shared" si="1"/>
         <v>55.076100411027696</v>
       </c>
-      <c r="G20" s="124">
+      <c r="G20" s="116">
         <f t="shared" ref="G20" si="18">AVERAGE(F20:F21)</f>
         <v>53.617961330245691</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="98">
         <f t="shared" ref="H20" si="19">ABS(F20-F21)/AVERAGE(F20:F21)*100</f>
         <v>5.4389948614456927</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111" t="e">
+      <c r="I20" s="103"/>
+      <c r="J20" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107">
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99">
         <v>0.5353</v>
       </c>
-      <c r="D21" s="107">
+      <c r="D21" s="99">
         <v>0.251</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="99">
         <v>0.65649999999999997</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="100">
         <f t="shared" si="1"/>
         <v>52.159822249463694</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108" t="e">
+      <c r="G21" s="117"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104">
+      <c r="A22" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96">
         <v>0.55510000000000004</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="102">
         <v>0.25040000000000001</v>
       </c>
-      <c r="E22" s="110">
+      <c r="E22" s="102">
         <v>0.67479999999999996</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="97">
         <f t="shared" si="1"/>
         <v>52.660792237370771</v>
       </c>
-      <c r="G22" s="124">
+      <c r="G22" s="116">
         <f t="shared" ref="G22" si="20">AVERAGE(F22:F23)</f>
         <v>53.063602729585668</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="98">
         <f t="shared" ref="H22" si="21">ABS(F22-F23)/AVERAGE(F22:F23)*100</f>
         <v>1.5182176538884329</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111" t="e">
+      <c r="I22" s="103"/>
+      <c r="J22" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107">
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99">
         <v>0.53120000000000001</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="99">
         <v>0.24990000000000001</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="99">
         <v>0.64859999999999995</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="100">
         <f t="shared" si="1"/>
         <v>53.466413221800565</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108" t="e">
+      <c r="G23" s="117"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104">
+      <c r="A24" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96">
         <v>0.53610000000000002</v>
       </c>
-      <c r="D24" s="110">
+      <c r="D24" s="102">
         <v>0.25080000000000002</v>
       </c>
-      <c r="E24" s="110">
+      <c r="E24" s="102">
         <v>0.64710000000000001</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="97">
         <f t="shared" si="1"/>
         <v>56.189325916397301</v>
       </c>
-      <c r="G24" s="124">
+      <c r="G24" s="116">
         <f t="shared" ref="G24" si="22">AVERAGE(F24:F25)</f>
         <v>55.92837861903233</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="98">
         <f t="shared" ref="H24" si="23">ABS(F24-F25)/AVERAGE(F24:F25)*100</f>
         <v>0.9331480862067103</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111" t="e">
+      <c r="I24" s="103"/>
+      <c r="J24" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99">
         <v>0.54759999999999998</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="106">
         <v>0.2505</v>
       </c>
-      <c r="E25" s="114">
+      <c r="E25" s="106">
         <v>0.65980000000000005</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="100">
         <f t="shared" si="1"/>
         <v>55.667431321667358</v>
       </c>
-      <c r="G25" s="125"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115" t="e">
+      <c r="G25" s="117"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="118">
+      <c r="A26" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="110">
         <v>0.5252</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119">
+      <c r="D26" s="111"/>
+      <c r="E26" s="111">
         <v>0.52629999999999999</v>
       </c>
-      <c r="F26" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122">
+      <c r="F26" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="112"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114">
         <f>E26/C26</f>
         <v>1.0020944402132521</v>
       </c>
-      <c r="J26" s="123"/>
+      <c r="J26" s="115"/>
     </row>
     <row r="27" spans="1:10" ht="36.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="102" t="s">
-        <v>103</v>
+      <c r="A27" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104">
+      <c r="A28" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96">
         <v>0.56159999999999999</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="96">
         <v>0.2505</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="96">
         <v>0.68159999999999998</v>
       </c>
-      <c r="F28" s="105">
-        <f>(1-((E28-(C28*I$34))/D28))*100</f>
+      <c r="F28" s="97">
+        <f t="shared" ref="F28:F33" si="24">(1-((E28-(C28*I$34))/D28))*100</f>
         <v>52.220129057965423</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="97">
         <f>AVERAGE(F28:F29)</f>
         <v>53.423426928458184</v>
       </c>
-      <c r="H28" s="106">
+      <c r="H28" s="98">
         <f>ABS(F28-F29)/AVERAGE(F28:F29)*100</f>
         <v>4.5047573309146109</v>
       </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105" t="e">
+      <c r="I28" s="97"/>
+      <c r="J28" s="97" t="e">
         <f>F28/(I28/100)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107">
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99">
         <v>0.52959999999999996</v>
       </c>
-      <c r="D29" s="107">
+      <c r="D29" s="99">
         <v>0.2495</v>
       </c>
-      <c r="E29" s="107">
+      <c r="E29" s="99">
         <v>0.6431</v>
       </c>
-      <c r="F29" s="108">
-        <f>(1-((E29-(C29*I$34))/D29))*100</f>
+      <c r="F29" s="100">
+        <f t="shared" si="24"/>
         <v>54.626724798950953</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108" t="e">
-        <f t="shared" ref="J29:J33" si="24">F29/(I29/100)</f>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100" t="e">
+        <f t="shared" ref="J29:J33" si="25">F29/(I29/100)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="102">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="D30" s="102">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="E30" s="102">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="F30" s="97">
+        <f t="shared" si="24"/>
+        <v>54.459018154632275</v>
+      </c>
+      <c r="G30" s="97">
+        <f t="shared" ref="G30" si="26">AVERAGE(F30:F31)</f>
+        <v>54.390896290373163</v>
+      </c>
+      <c r="H30" s="98">
+        <f t="shared" ref="H30" si="27">ABS(F30-F31)/AVERAGE(F30:F31)*100</f>
+        <v>0.25048994925707468</v>
+      </c>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="D31" s="99">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E31" s="99">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F31" s="100">
+        <f t="shared" si="24"/>
+        <v>54.322774426114051</v>
+      </c>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="110">
-        <v>0.54290000000000005</v>
-      </c>
-      <c r="D30" s="110">
-        <v>0.25119999999999998</v>
-      </c>
-      <c r="E30" s="110">
-        <v>0.65759999999999996</v>
-      </c>
-      <c r="F30" s="105">
-        <f>(1-((E30-(C30*I$34))/D30))*100</f>
-        <v>54.459018154632275</v>
-      </c>
-      <c r="G30" s="105">
-        <f t="shared" ref="G30" si="25">AVERAGE(F30:F31)</f>
-        <v>54.390896290373163</v>
-      </c>
-      <c r="H30" s="106">
-        <f t="shared" ref="H30" si="26">ABS(F30-F31)/AVERAGE(F30:F31)*100</f>
-        <v>0.25048994925707468</v>
-      </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111" t="e">
+      <c r="B32" s="96"/>
+      <c r="C32" s="102">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D32" s="102">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="E32" s="102">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="F32" s="97">
         <f t="shared" si="24"/>
+        <v>61.382157704687643</v>
+      </c>
+      <c r="G32" s="97">
+        <f t="shared" ref="G32" si="28">AVERAGE(F32:F33)</f>
+        <v>60.167590829528571</v>
+      </c>
+      <c r="H32" s="98">
+        <f t="shared" ref="H32" si="29">ABS(F32-F33)/AVERAGE(F32:F33)*100</f>
+        <v>4.0372794004675239</v>
+      </c>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="D31" s="107">
-        <v>0.25090000000000001</v>
-      </c>
-      <c r="E31" s="107">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="F31" s="108">
-        <f>(1-((E31-(C31*I$34))/D31))*100</f>
-        <v>54.322774426114051</v>
-      </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108" t="e">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="D33" s="99">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="E33" s="99">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="F33" s="100">
         <f t="shared" si="24"/>
+        <v>58.953023954369499</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="110">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="D32" s="110">
-        <v>0.25169999999999998</v>
-      </c>
-      <c r="E32" s="110">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="F32" s="105">
-        <f>(1-((E32-(C32*I$34))/D32))*100</f>
-        <v>61.382157704687643</v>
-      </c>
-      <c r="G32" s="105">
-        <f t="shared" ref="G32" si="27">AVERAGE(F32:F33)</f>
-        <v>60.167590829528571</v>
-      </c>
-      <c r="H32" s="106">
-        <f t="shared" ref="H32" si="28">ABS(F32-F33)/AVERAGE(F32:F33)*100</f>
-        <v>4.0372794004675239</v>
-      </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107">
-        <v>0.53239999999999998</v>
-      </c>
-      <c r="D33" s="107">
-        <v>0.25069999999999998</v>
-      </c>
-      <c r="E33" s="107">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="F33" s="108">
-        <f>(1-((E33-(C33*I$34))/D33))*100</f>
-        <v>58.953023954369499</v>
-      </c>
-      <c r="G33" s="108"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="118">
+      <c r="A34" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="110">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119">
+      <c r="D34" s="111"/>
+      <c r="E34" s="111">
         <v>0.5413</v>
       </c>
-      <c r="F34" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122">
+      <c r="F34" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="112"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="114">
         <f>E34/C34</f>
         <v>1.000554528650647</v>
       </c>
-      <c r="J34" s="123"/>
+      <c r="J34" s="115"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
